--- a/Assets/Resources/PlayerDataPresets.xlsx
+++ b/Assets/Resources/PlayerDataPresets.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="PlayerData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="278">
   <si>
     <t>PlayerID</t>
   </si>
@@ -553,6 +553,306 @@
   </si>
   <si>
     <t>P.Foder</t>
+  </si>
+  <si>
+    <t>A.Arola</t>
+  </si>
+  <si>
+    <t>G.Buffen</t>
+  </si>
+  <si>
+    <t>T.Silvi</t>
+  </si>
+  <si>
+    <t>P.Kipembe</t>
+  </si>
+  <si>
+    <t>T.Cehrer</t>
+  </si>
+  <si>
+    <t>Marquinos</t>
+  </si>
+  <si>
+    <t>T.Meuniee</t>
+  </si>
+  <si>
+    <t>Bernar</t>
+  </si>
+  <si>
+    <t>L.Kursawa</t>
+  </si>
+  <si>
+    <t>D.Alvi</t>
+  </si>
+  <si>
+    <t>M.Veratta</t>
+  </si>
+  <si>
+    <t>L.Paradas</t>
+  </si>
+  <si>
+    <t>J.Daxler</t>
+  </si>
+  <si>
+    <t>C.Rabiar</t>
+  </si>
+  <si>
+    <t>G.Lo Celsi</t>
+  </si>
+  <si>
+    <t>Di.Mariaa</t>
+  </si>
+  <si>
+    <t>Neymir</t>
+  </si>
+  <si>
+    <t>C.Nkunki</t>
+  </si>
+  <si>
+    <t>E.Chouppo</t>
+  </si>
+  <si>
+    <t>K.Mboope</t>
+  </si>
+  <si>
+    <t>E.Cavana</t>
+  </si>
+  <si>
+    <t>Jesa</t>
+  </si>
+  <si>
+    <t>M.Diaby</t>
+  </si>
+  <si>
+    <t>H.Loris</t>
+  </si>
+  <si>
+    <t>M.Vorm</t>
+  </si>
+  <si>
+    <t>T.Alderwield</t>
+  </si>
+  <si>
+    <t>J.Vertongan</t>
+  </si>
+  <si>
+    <t>D.Sanchiz</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>J.Foyth</t>
+  </si>
+  <si>
+    <t>K.Tripper</t>
+  </si>
+  <si>
+    <t>D.Rosee</t>
+  </si>
+  <si>
+    <t>B.Davis</t>
+  </si>
+  <si>
+    <t>S.Aurieer</t>
+  </si>
+  <si>
+    <t>E.Dieer</t>
+  </si>
+  <si>
+    <t>M.Sissokko</t>
+  </si>
+  <si>
+    <t>H.Winks</t>
+  </si>
+  <si>
+    <t>C.Erkson</t>
+  </si>
+  <si>
+    <t>V.Wanyamma</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>D.Ali</t>
+  </si>
+  <si>
+    <t>H.Sonn</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>E.Lamalla</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>G.Nkodou</t>
+  </si>
+  <si>
+    <t>V.Jansonn</t>
+  </si>
+  <si>
+    <t>H.Bane</t>
+  </si>
+  <si>
+    <t>Lorente</t>
+  </si>
+  <si>
+    <t>M.Newer</t>
+  </si>
+  <si>
+    <t>S.Ulrich</t>
+  </si>
+  <si>
+    <t>N.Sool</t>
+  </si>
+  <si>
+    <t>M.Hummls</t>
+  </si>
+  <si>
+    <t>J.Boating</t>
+  </si>
+  <si>
+    <t>M.Friiedl</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>J.Kimich</t>
+  </si>
+  <si>
+    <t>Rafina</t>
+  </si>
+  <si>
+    <t>D.Alba</t>
+  </si>
+  <si>
+    <t>J.Meyer</t>
+  </si>
+  <si>
+    <t>J.Martines</t>
+  </si>
+  <si>
+    <t>Thiaga</t>
+  </si>
+  <si>
+    <t>L.Gotezka</t>
+  </si>
+  <si>
+    <t>C.Toliso</t>
+  </si>
+  <si>
+    <t>R.Sanchez</t>
+  </si>
+  <si>
+    <t>J.Rodirgez</t>
+  </si>
+  <si>
+    <t>A.Ribary</t>
+  </si>
+  <si>
+    <t>K.Comon</t>
+  </si>
+  <si>
+    <t>A.Robban</t>
+  </si>
+  <si>
+    <t>S.Gabry</t>
+  </si>
+  <si>
+    <t>R.Lewandoski</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>T.Mullar</t>
+  </si>
+  <si>
+    <t>O.Batista</t>
+  </si>
+  <si>
+    <t>K.Navad</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>T.Courtoin</t>
+  </si>
+  <si>
+    <t>R.Varanee</t>
+  </si>
+  <si>
+    <t>S.Ramon</t>
+  </si>
+  <si>
+    <t>Nachos</t>
+  </si>
+  <si>
+    <t>Vallejos</t>
+  </si>
+  <si>
+    <t>Carajal</t>
+  </si>
+  <si>
+    <t>Odriorola</t>
+  </si>
+  <si>
+    <t>Marthelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reguilen</t>
+  </si>
+  <si>
+    <t>Casemiro</t>
+  </si>
+  <si>
+    <t>T.Kros</t>
+  </si>
+  <si>
+    <t>L.Midric</t>
+  </si>
+  <si>
+    <t>Iscro</t>
+  </si>
+  <si>
+    <t>Cebalos</t>
+  </si>
+  <si>
+    <t>M.Lorente</t>
+  </si>
+  <si>
+    <t>M.Asenso</t>
+  </si>
+  <si>
+    <t>F.Valverd</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>G.Hale</t>
+  </si>
+  <si>
+    <t>Vinisius</t>
+  </si>
+  <si>
+    <t>K.Benzem</t>
+  </si>
+  <si>
+    <t>Marieno</t>
+  </si>
+  <si>
+    <t>Dom. Republic</t>
+  </si>
+  <si>
+    <t>B.Mayoral</t>
   </si>
 </sst>
 </file>
@@ -1387,15 +1687,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X116"/>
+  <dimension ref="A1:X208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
     <col min="17" max="17" width="16.140625" customWidth="1"/>
     <col min="18" max="18" width="17.7109375" customWidth="1"/>
@@ -7200,8 +7501,8 @@
         <v>4</v>
       </c>
       <c r="J79">
-        <f t="shared" ref="J78:S93" ca="1" si="0">RANDBETWEEN(60,100)</f>
-        <v>97</v>
+        <f t="shared" ref="J79" ca="1" si="0">RANDBETWEEN(60,100)</f>
+        <v>83</v>
       </c>
       <c r="K79">
         <v>80</v>
@@ -8312,43 +8613,43 @@
       </c>
       <c r="J94">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="K94">
         <f t="shared" ref="K94:N95" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="L94">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M94">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="N94">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="O94">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="P94">
         <f ca="1">RANDBETWEEN(60,100)</f>
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="Q94">
         <f ca="1">RANDBETWEEN(60,100)</f>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R94">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="S94">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T94">
         <v>50</v>
@@ -8396,43 +8697,43 @@
       </c>
       <c r="J95">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="L95">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="M95">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="N95">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="O95">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="P95">
         <f ca="1">RANDBETWEEN(60,100)</f>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="Q95">
         <f ca="1">RANDBETWEEN(60,100)</f>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="R95">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S95">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="T95">
         <v>50</v>
@@ -8480,43 +8781,43 @@
       </c>
       <c r="J96">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="K96">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="L96">
         <f ca="1">RANDBETWEEN(60,100)</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M96">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="N96">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O96">
         <f ca="1">RANDBETWEEN(60,100)</f>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="P96">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="Q96">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="R96">
         <f t="shared" ref="R96:S98" ca="1" si="2">RANDBETWEEN(40,100)</f>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="S96">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="T96">
         <v>50</v>
@@ -8564,43 +8865,43 @@
       </c>
       <c r="J97">
         <f t="shared" ref="J97:K102" ca="1" si="3">RANDBETWEEN(40,100)</f>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="L97">
         <f t="shared" ref="L97:L102" ca="1" si="4">RANDBETWEEN(60,100)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M97">
         <f t="shared" ref="M97:M102" ca="1" si="5">RANDBETWEEN(0,100)</f>
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="N97">
         <f t="shared" ref="N97:N102" ca="1" si="6">RANDBETWEEN(40,100)</f>
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O97">
         <f t="shared" ref="O97:O102" ca="1" si="7">RANDBETWEEN(60,100)</f>
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="P97">
         <f t="shared" ref="P97:S102" ca="1" si="8">RANDBETWEEN(0,100)</f>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q97">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R97">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="S97">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="T97">
         <v>50</v>
@@ -8648,43 +8949,43 @@
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="L98">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M98">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O98">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="P98">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="Q98">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="R98">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="S98">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="T98">
         <v>50</v>
@@ -8736,39 +9037,39 @@
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L99">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="M99">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="N99">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="O99">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P99">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="Q99">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="R99">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="S99">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T99">
         <v>50</v>
@@ -8802,6 +9103,9 @@
       <c r="E100">
         <v>28</v>
       </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
       <c r="G100" t="s">
         <v>38</v>
       </c>
@@ -8813,19 +9117,19 @@
       </c>
       <c r="J100">
         <f ca="1">RANDBETWEEN(60,100)</f>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="L100">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="M100">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="N100">
         <f t="shared" ca="1" si="6"/>
@@ -8833,23 +9137,23 @@
       </c>
       <c r="O100">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="P100">
         <f t="shared" ca="1" si="8"/>
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="Q100">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R100">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="S100">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="T100">
         <v>50</v>
@@ -8883,6 +9187,9 @@
       <c r="E101">
         <v>26</v>
       </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
       <c r="G101" t="s">
         <v>38</v>
       </c>
@@ -8894,43 +9201,43 @@
       </c>
       <c r="J101">
         <f t="shared" ref="J101:S116" ca="1" si="9">RANDBETWEEN(60,100)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="L101">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M101">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="N101">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="O101">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="P101">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Q101">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="R101">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="S101">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="T101">
         <v>50</v>
@@ -8964,6 +9271,9 @@
       <c r="E102">
         <v>23</v>
       </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
       <c r="G102" t="s">
         <v>40</v>
       </c>
@@ -8975,43 +9285,43 @@
       </c>
       <c r="J102">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K102">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="L102">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M102">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="N102">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="O102">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P102">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q102">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="R102">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="S102">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="T102">
         <v>50</v>
@@ -9045,6 +9355,9 @@
       <c r="E103">
         <v>28</v>
       </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
       <c r="G103" t="s">
         <v>40</v>
       </c>
@@ -9056,19 +9369,19 @@
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K103">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L103">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M103">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="N103">
         <f t="shared" ca="1" si="9"/>
@@ -9076,23 +9389,23 @@
       </c>
       <c r="O103">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="P103">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="Q103">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="R103">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S103">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="T103">
         <v>50</v>
@@ -9126,6 +9439,9 @@
       <c r="E104">
         <v>33</v>
       </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
       <c r="G104" t="s">
         <v>45</v>
       </c>
@@ -9137,43 +9453,43 @@
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K104">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L104">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="M104">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="N104">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="O104">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P104">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="Q104">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="R104">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S104">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T104">
         <v>50</v>
@@ -9207,6 +9523,9 @@
       <c r="E105">
         <v>32</v>
       </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
       <c r="G105" t="s">
         <v>47</v>
       </c>
@@ -9218,7 +9537,7 @@
       </c>
       <c r="J105">
         <f ca="1">RANDBETWEEN(70,100)</f>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="K105">
         <f ca="1">RANDBETWEEN(70,100)</f>
@@ -9226,35 +9545,35 @@
       </c>
       <c r="L105">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="M105">
         <f ca="1">RANDBETWEEN(60,100)</f>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="N105">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="O105">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="P105">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="Q105">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R105">
         <f t="shared" ref="R105:S116" ca="1" si="10">RANDBETWEEN(0,100)</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S105">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="T105">
         <v>50</v>
@@ -9288,6 +9607,9 @@
       <c r="E106">
         <v>27</v>
       </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
       <c r="G106" t="s">
         <v>47</v>
       </c>
@@ -9299,43 +9621,43 @@
       </c>
       <c r="J106">
         <f t="shared" ref="J106:K116" ca="1" si="11">RANDBETWEEN(70,100)</f>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="11"/>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="L106">
         <f t="shared" ref="L106:L116" ca="1" si="12">RANDBETWEEN(30,100)</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M106">
         <f t="shared" ref="M106:M116" ca="1" si="13">RANDBETWEEN(60,100)</f>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="O106">
         <f t="shared" ref="O106:O116" ca="1" si="14">RANDBETWEEN(40,100)</f>
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="P106">
         <f t="shared" ref="P106:Q116" ca="1" si="15">RANDBETWEEN(0,100)</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q106">
         <f t="shared" ca="1" si="15"/>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="R106">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S106">
         <f t="shared" ca="1" si="10"/>
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="T106">
         <v>50</v>
@@ -9369,6 +9691,9 @@
       <c r="E107">
         <v>21</v>
       </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
       <c r="G107" t="s">
         <v>47</v>
       </c>
@@ -9380,43 +9705,43 @@
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="11"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K107">
         <f t="shared" ca="1" si="11"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L107">
         <f t="shared" ca="1" si="12"/>
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="M107">
         <f t="shared" ca="1" si="13"/>
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="N107">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="O107">
         <f t="shared" ca="1" si="14"/>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P107">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q107">
         <f t="shared" ca="1" si="15"/>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="R107">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S107">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="T107">
         <v>50</v>
@@ -9450,6 +9775,9 @@
       <c r="E108">
         <v>18</v>
       </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
       <c r="G108" t="s">
         <v>47</v>
       </c>
@@ -9461,43 +9789,43 @@
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="11"/>
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L108">
         <f t="shared" ca="1" si="12"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M108">
         <f t="shared" ca="1" si="13"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="N108">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="O108">
         <f t="shared" ca="1" si="14"/>
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="P108">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q108">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R108">
         <f t="shared" ca="1" si="10"/>
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="S108">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="T108">
         <v>50</v>
@@ -9531,6 +9859,9 @@
       <c r="E109">
         <v>27</v>
       </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
       <c r="G109" t="s">
         <v>49</v>
       </c>
@@ -9542,43 +9873,43 @@
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="K109">
         <f t="shared" ca="1" si="11"/>
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L109">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M109">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N109">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="O109">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P109">
         <f t="shared" ca="1" si="15"/>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="Q109">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="R109">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="S109">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="T109">
         <v>50</v>
@@ -9612,6 +9943,9 @@
       <c r="E110">
         <v>22</v>
       </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
       <c r="G110" t="s">
         <v>55</v>
       </c>
@@ -9623,43 +9957,43 @@
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K110">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="L110">
         <f t="shared" ca="1" si="12"/>
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M110">
         <f t="shared" ca="1" si="13"/>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N110">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="O110">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="P110">
         <f t="shared" ca="1" si="15"/>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="Q110">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="R110">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="S110">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="T110">
         <v>50</v>
@@ -9693,6 +10027,9 @@
       <c r="E111">
         <v>23</v>
       </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
       <c r="G111" t="s">
         <v>55</v>
       </c>
@@ -9704,43 +10041,43 @@
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="11"/>
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K111">
         <f t="shared" ca="1" si="11"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="L111">
         <f t="shared" ca="1" si="12"/>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="M111">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="N111">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O111">
         <f t="shared" ca="1" si="14"/>
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="P111">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="Q111">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R111">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="S111">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="T111">
         <v>50</v>
@@ -9774,6 +10111,9 @@
       <c r="E112">
         <v>27</v>
       </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
       <c r="G112" t="s">
         <v>59</v>
       </c>
@@ -9789,39 +10129,39 @@
       </c>
       <c r="K112">
         <f t="shared" ca="1" si="11"/>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L112">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="M112">
         <f t="shared" ca="1" si="13"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N112">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="O112">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P112">
         <f t="shared" ca="1" si="15"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q112">
         <f t="shared" ca="1" si="15"/>
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="R112">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="S112">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="T112">
         <v>50</v>
@@ -9855,6 +10195,9 @@
       <c r="E113">
         <v>23</v>
       </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
       <c r="G113" t="s">
         <v>59</v>
       </c>
@@ -9866,43 +10209,43 @@
       </c>
       <c r="J113">
         <f t="shared" ca="1" si="11"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="K113">
         <f t="shared" ca="1" si="11"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L113">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M113">
         <f t="shared" ca="1" si="13"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N113">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O113">
         <f t="shared" ca="1" si="14"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="P113">
         <f t="shared" ca="1" si="15"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q113">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="R113">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="S113">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="T113">
         <v>50</v>
@@ -9936,6 +10279,9 @@
       <c r="E114">
         <v>30</v>
       </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
       <c r="G114" t="s">
         <v>64</v>
       </c>
@@ -9947,7 +10293,7 @@
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="11"/>
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K114">
         <f t="shared" ca="1" si="11"/>
@@ -9955,35 +10301,35 @@
       </c>
       <c r="L114">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M114">
         <f ca="1">RANDBETWEEN(70,100)</f>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N114">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="O114">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="P114">
         <f t="shared" ca="1" si="15"/>
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="Q114">
         <f t="shared" ca="1" si="15"/>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="R114">
         <f t="shared" ca="1" si="10"/>
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="S114">
         <f t="shared" ca="1" si="10"/>
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="T114">
         <v>50</v>
@@ -10017,6 +10363,9 @@
       <c r="E115">
         <v>21</v>
       </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
       <c r="G115" t="s">
         <v>64</v>
       </c>
@@ -10028,43 +10377,43 @@
       </c>
       <c r="J115">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K115">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L115">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M115">
         <f ca="1">RANDBETWEEN(70,100)</f>
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N115">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="O115">
         <f t="shared" ca="1" si="14"/>
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="P115">
         <f t="shared" ca="1" si="15"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="Q115">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="R115">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="S115">
         <f t="shared" ca="1" si="10"/>
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="T115">
         <v>50</v>
@@ -10098,6 +10447,9 @@
       <c r="E116">
         <v>21</v>
       </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
       <c r="G116" t="s">
         <v>64</v>
       </c>
@@ -10109,57 +10461,7728 @@
       </c>
       <c r="J116">
         <f t="shared" ca="1" si="11"/>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K116">
         <f t="shared" ca="1" si="11"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="L116">
         <f t="shared" ca="1" si="12"/>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M116">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="N116">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O116">
         <f t="shared" ca="1" si="14"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P116">
         <f t="shared" ca="1" si="15"/>
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="Q116">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="R116">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="S116">
         <f t="shared" ca="1" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="T116">
+        <v>50</v>
+      </c>
+      <c r="U116">
+        <v>40</v>
+      </c>
+      <c r="V116">
+        <v>60</v>
+      </c>
+      <c r="W116">
+        <v>60</v>
+      </c>
+      <c r="X116">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117">
+        <v>25</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>25</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+      <c r="J117">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>98</v>
+      </c>
+      <c r="K117">
+        <f t="shared" ref="K117:N118" ca="1" si="16">RANDBETWEEN(0,100)</f>
+        <v>59</v>
+      </c>
+      <c r="L117">
+        <f t="shared" ca="1" si="16"/>
+        <v>58</v>
+      </c>
+      <c r="M117">
+        <f t="shared" ca="1" si="16"/>
+        <v>91</v>
+      </c>
+      <c r="N117">
+        <f t="shared" ca="1" si="16"/>
+        <v>83</v>
+      </c>
+      <c r="O117">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>61</v>
+      </c>
+      <c r="P117">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>96</v>
+      </c>
+      <c r="Q117">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>82</v>
+      </c>
+      <c r="R117">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>95</v>
+      </c>
+      <c r="S117">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>99</v>
+      </c>
+      <c r="T117">
+        <v>50</v>
+      </c>
+      <c r="U117">
+        <v>40</v>
+      </c>
+      <c r="V117">
+        <v>60</v>
+      </c>
+      <c r="W117">
+        <v>60</v>
+      </c>
+      <c r="X117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" t="s">
+        <v>82</v>
+      </c>
+      <c r="E118">
+        <v>40</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>25</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <f t="shared" ca="1" si="16"/>
+        <v>36</v>
+      </c>
+      <c r="L118">
+        <f t="shared" ca="1" si="16"/>
+        <v>42</v>
+      </c>
+      <c r="M118">
+        <f t="shared" ca="1" si="16"/>
+        <v>71</v>
+      </c>
+      <c r="N118">
+        <f t="shared" ca="1" si="16"/>
+        <v>47</v>
+      </c>
+      <c r="O118">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>60</v>
+      </c>
+      <c r="P118">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>68</v>
+      </c>
+      <c r="Q118">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>87</v>
+      </c>
+      <c r="R118">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>57</v>
+      </c>
+      <c r="S118">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>91</v>
+      </c>
+      <c r="T118">
+        <v>50</v>
+      </c>
+      <c r="U118">
+        <v>40</v>
+      </c>
+      <c r="V118">
+        <v>60</v>
+      </c>
+      <c r="W118">
+        <v>60</v>
+      </c>
+      <c r="X118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>180</v>
+      </c>
+      <c r="D119" t="s">
+        <v>74</v>
+      </c>
+      <c r="E119">
+        <v>33</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>29</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>4</v>
+      </c>
+      <c r="J119">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>85</v>
+      </c>
+      <c r="K119">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>91</v>
+      </c>
+      <c r="L119">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>71</v>
+      </c>
+      <c r="M119">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>20</v>
+      </c>
+      <c r="N119">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>55</v>
+      </c>
+      <c r="O119">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>70</v>
+      </c>
+      <c r="P119">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>30</v>
+      </c>
+      <c r="Q119">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>38</v>
+      </c>
+      <c r="R119">
+        <f t="shared" ref="R119:S121" ca="1" si="17">RANDBETWEEN(40,100)</f>
+        <v>85</v>
+      </c>
+      <c r="S119">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="T119">
+        <v>50</v>
+      </c>
+      <c r="U119">
+        <v>40</v>
+      </c>
+      <c r="V119">
+        <v>60</v>
+      </c>
+      <c r="W119">
+        <v>60</v>
+      </c>
+      <c r="X119">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>181</v>
+      </c>
+      <c r="D120" t="s">
+        <v>51</v>
+      </c>
+      <c r="E120">
+        <v>22</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+      <c r="J120">
+        <f t="shared" ref="J120:K125" ca="1" si="18">RANDBETWEEN(40,100)</f>
+        <v>95</v>
+      </c>
+      <c r="K120">
+        <f t="shared" ca="1" si="18"/>
+        <v>41</v>
+      </c>
+      <c r="L120">
+        <f t="shared" ref="L120:L125" ca="1" si="19">RANDBETWEEN(60,100)</f>
+        <v>66</v>
+      </c>
+      <c r="M120">
+        <f t="shared" ref="M120:M125" ca="1" si="20">RANDBETWEEN(0,100)</f>
+        <v>57</v>
+      </c>
+      <c r="N120">
+        <f t="shared" ref="N120:N125" ca="1" si="21">RANDBETWEEN(40,100)</f>
+        <v>100</v>
+      </c>
+      <c r="O120">
+        <f t="shared" ref="O120:O125" ca="1" si="22">RANDBETWEEN(60,100)</f>
+        <v>84</v>
+      </c>
+      <c r="P120">
+        <f t="shared" ref="P120:S125" ca="1" si="23">RANDBETWEEN(0,100)</f>
+        <v>37</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" ca="1" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="R120">
+        <f t="shared" ca="1" si="17"/>
+        <v>88</v>
+      </c>
+      <c r="S120">
+        <f t="shared" ca="1" si="17"/>
+        <v>46</v>
+      </c>
+      <c r="T120">
+        <v>50</v>
+      </c>
+      <c r="U120">
+        <v>40</v>
+      </c>
+      <c r="V120">
+        <v>60</v>
+      </c>
+      <c r="W120">
+        <v>60</v>
+      </c>
+      <c r="X120">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>182</v>
+      </c>
+      <c r="D121" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121">
+        <v>21</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>4</v>
+      </c>
+      <c r="J121">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="K121">
+        <f t="shared" ca="1" si="18"/>
+        <v>78</v>
+      </c>
+      <c r="L121">
+        <f t="shared" ca="1" si="19"/>
+        <v>87</v>
+      </c>
+      <c r="M121">
+        <f t="shared" ca="1" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="N121">
+        <f t="shared" ca="1" si="21"/>
+        <v>51</v>
+      </c>
+      <c r="O121">
+        <f t="shared" ca="1" si="22"/>
+        <v>94</v>
+      </c>
+      <c r="P121">
+        <f t="shared" ca="1" si="23"/>
+        <v>86</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" ca="1" si="23"/>
+        <v>81</v>
+      </c>
+      <c r="R121">
+        <f t="shared" ca="1" si="17"/>
+        <v>63</v>
+      </c>
+      <c r="S121">
+        <f t="shared" ca="1" si="17"/>
+        <v>43</v>
+      </c>
+      <c r="T121">
+        <v>50</v>
+      </c>
+      <c r="U121">
+        <v>40</v>
+      </c>
+      <c r="V121">
+        <v>60</v>
+      </c>
+      <c r="W121">
+        <v>60</v>
+      </c>
+      <c r="X121">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>183</v>
+      </c>
+      <c r="D122" t="s">
+        <v>74</v>
+      </c>
+      <c r="E122">
+        <v>24</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>4</v>
+      </c>
+      <c r="J122">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="K122">
+        <f t="shared" ca="1" si="18"/>
+        <v>98</v>
+      </c>
+      <c r="L122">
+        <f t="shared" ca="1" si="19"/>
+        <v>80</v>
+      </c>
+      <c r="M122">
+        <f t="shared" ca="1" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="N122">
+        <f t="shared" ca="1" si="21"/>
+        <v>52</v>
+      </c>
+      <c r="O122">
+        <f t="shared" ca="1" si="22"/>
+        <v>73</v>
+      </c>
+      <c r="P122">
+        <f t="shared" ca="1" si="23"/>
+        <v>65</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" ca="1" si="23"/>
+        <v>31</v>
+      </c>
+      <c r="R122">
+        <f t="shared" ca="1" si="23"/>
+        <v>58</v>
+      </c>
+      <c r="S122">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+      <c r="T122">
+        <v>50</v>
+      </c>
+      <c r="U122">
+        <v>40</v>
+      </c>
+      <c r="V122">
+        <v>60</v>
+      </c>
+      <c r="W122">
+        <v>60</v>
+      </c>
+      <c r="X122">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>184</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123">
+        <v>26</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>4</v>
+      </c>
+      <c r="J123">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>63</v>
+      </c>
+      <c r="K123">
+        <f t="shared" ca="1" si="18"/>
+        <v>48</v>
+      </c>
+      <c r="L123">
+        <f t="shared" ca="1" si="19"/>
+        <v>85</v>
+      </c>
+      <c r="M123">
+        <f t="shared" ca="1" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="N123">
+        <f t="shared" ca="1" si="21"/>
+        <v>60</v>
+      </c>
+      <c r="O123">
+        <f t="shared" ca="1" si="22"/>
+        <v>67</v>
+      </c>
+      <c r="P123">
+        <f t="shared" ca="1" si="23"/>
+        <v>78</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" ca="1" si="23"/>
         <v>14</v>
       </c>
-      <c r="T116">
-        <v>50</v>
-      </c>
-      <c r="U116">
-        <v>40</v>
-      </c>
-      <c r="V116">
-        <v>60</v>
-      </c>
-      <c r="W116">
-        <v>60</v>
-      </c>
-      <c r="X116">
+      <c r="R123">
+        <f t="shared" ca="1" si="23"/>
+        <v>96</v>
+      </c>
+      <c r="S123">
+        <f t="shared" ca="1" si="23"/>
+        <v>51</v>
+      </c>
+      <c r="T123">
+        <v>50</v>
+      </c>
+      <c r="U123">
+        <v>40</v>
+      </c>
+      <c r="V123">
+        <v>60</v>
+      </c>
+      <c r="W123">
+        <v>60</v>
+      </c>
+      <c r="X123">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>187</v>
+      </c>
+      <c r="D124" t="s">
+        <v>74</v>
+      </c>
+      <c r="E124">
+        <v>35</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>38</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>4</v>
+      </c>
+      <c r="J124">
+        <f t="shared" ref="J124:S139" ca="1" si="24">RANDBETWEEN(60,100)</f>
+        <v>76</v>
+      </c>
+      <c r="K124">
+        <f t="shared" ca="1" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="L124">
+        <f t="shared" ca="1" si="19"/>
+        <v>89</v>
+      </c>
+      <c r="M124">
+        <f t="shared" ca="1" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="N124">
+        <f t="shared" ca="1" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="O124">
+        <f t="shared" ca="1" si="22"/>
+        <v>92</v>
+      </c>
+      <c r="P124">
+        <f t="shared" ca="1" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" ca="1" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="R124">
+        <f t="shared" ca="1" si="23"/>
+        <v>84</v>
+      </c>
+      <c r="S124">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+      <c r="T124">
+        <v>50</v>
+      </c>
+      <c r="U124">
+        <v>40</v>
+      </c>
+      <c r="V124">
+        <v>60</v>
+      </c>
+      <c r="W124">
+        <v>60</v>
+      </c>
+      <c r="X124">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>185</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125">
+        <v>25</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>40</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>4</v>
+      </c>
+      <c r="J125">
+        <f t="shared" ca="1" si="24"/>
+        <v>98</v>
+      </c>
+      <c r="K125">
+        <f t="shared" ca="1" si="18"/>
+        <v>67</v>
+      </c>
+      <c r="L125">
+        <f t="shared" ca="1" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="M125">
+        <f t="shared" ca="1" si="20"/>
+        <v>51</v>
+      </c>
+      <c r="N125">
+        <f t="shared" ca="1" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="O125">
+        <f t="shared" ca="1" si="22"/>
+        <v>72</v>
+      </c>
+      <c r="P125">
+        <f t="shared" ca="1" si="23"/>
+        <v>65</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" ca="1" si="23"/>
+        <v>65</v>
+      </c>
+      <c r="R125">
+        <f t="shared" ca="1" si="23"/>
+        <v>86</v>
+      </c>
+      <c r="S125">
+        <f t="shared" ca="1" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="T125">
+        <v>50</v>
+      </c>
+      <c r="U125">
+        <v>40</v>
+      </c>
+      <c r="V125">
+        <v>60</v>
+      </c>
+      <c r="W125">
+        <v>60</v>
+      </c>
+      <c r="X125">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>186</v>
+      </c>
+      <c r="D126" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126">
+        <v>25</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>40</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>4</v>
+      </c>
+      <c r="J126">
+        <f t="shared" ca="1" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="K126">
+        <f t="shared" ca="1" si="24"/>
+        <v>92</v>
+      </c>
+      <c r="L126">
+        <f t="shared" ca="1" si="24"/>
+        <v>81</v>
+      </c>
+      <c r="M126">
+        <f t="shared" ca="1" si="24"/>
+        <v>97</v>
+      </c>
+      <c r="N126">
+        <f t="shared" ca="1" si="24"/>
+        <v>65</v>
+      </c>
+      <c r="O126">
+        <f t="shared" ca="1" si="24"/>
+        <v>90</v>
+      </c>
+      <c r="P126">
+        <f t="shared" ca="1" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" ca="1" si="24"/>
+        <v>80</v>
+      </c>
+      <c r="R126">
+        <f t="shared" ca="1" si="24"/>
+        <v>61</v>
+      </c>
+      <c r="S126">
+        <f t="shared" ca="1" si="24"/>
+        <v>68</v>
+      </c>
+      <c r="T126">
+        <v>50</v>
+      </c>
+      <c r="U126">
+        <v>40</v>
+      </c>
+      <c r="V126">
+        <v>60</v>
+      </c>
+      <c r="W126">
+        <v>60</v>
+      </c>
+      <c r="X126">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>188</v>
+      </c>
+      <c r="D127" t="s">
+        <v>82</v>
+      </c>
+      <c r="E127">
+        <v>25</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>45</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>4</v>
+      </c>
+      <c r="J127">
+        <f t="shared" ca="1" si="24"/>
+        <v>92</v>
+      </c>
+      <c r="K127">
+        <f t="shared" ca="1" si="24"/>
+        <v>92</v>
+      </c>
+      <c r="L127">
+        <f t="shared" ca="1" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="M127">
+        <f t="shared" ca="1" si="24"/>
+        <v>92</v>
+      </c>
+      <c r="N127">
+        <f t="shared" ca="1" si="24"/>
+        <v>96</v>
+      </c>
+      <c r="O127">
+        <f t="shared" ca="1" si="24"/>
+        <v>73</v>
+      </c>
+      <c r="P127">
+        <f t="shared" ca="1" si="24"/>
+        <v>63</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" ca="1" si="24"/>
+        <v>86</v>
+      </c>
+      <c r="R127">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>77</v>
+      </c>
+      <c r="S127">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>84</v>
+      </c>
+      <c r="T127">
+        <v>50</v>
+      </c>
+      <c r="U127">
+        <v>40</v>
+      </c>
+      <c r="V127">
+        <v>60</v>
+      </c>
+      <c r="W127">
+        <v>60</v>
+      </c>
+      <c r="X127">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>189</v>
+      </c>
+      <c r="D128" t="s">
+        <v>71</v>
+      </c>
+      <c r="E128">
+        <v>24</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>47</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>4</v>
+      </c>
+      <c r="J128">
+        <f ca="1">RANDBETWEEN(70,100)</f>
+        <v>96</v>
+      </c>
+      <c r="K128">
+        <f ca="1">RANDBETWEEN(70,100)</f>
+        <v>70</v>
+      </c>
+      <c r="L128">
+        <f ca="1">RANDBETWEEN(30,100)</f>
+        <v>80</v>
+      </c>
+      <c r="M128">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>82</v>
+      </c>
+      <c r="N128">
+        <f t="shared" ca="1" si="24"/>
+        <v>69</v>
+      </c>
+      <c r="O128">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>96</v>
+      </c>
+      <c r="P128">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>87</v>
+      </c>
+      <c r="Q128">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>44</v>
+      </c>
+      <c r="R128">
+        <f t="shared" ref="R128:X140" ca="1" si="25">RANDBETWEEN(0,100)</f>
+        <v>58</v>
+      </c>
+      <c r="S128">
+        <f t="shared" ca="1" si="25"/>
+        <v>26</v>
+      </c>
+      <c r="T128">
+        <v>50</v>
+      </c>
+      <c r="U128">
+        <v>40</v>
+      </c>
+      <c r="V128">
+        <v>60</v>
+      </c>
+      <c r="W128">
+        <v>60</v>
+      </c>
+      <c r="X128">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>190</v>
+      </c>
+      <c r="D129" t="s">
+        <v>37</v>
+      </c>
+      <c r="E129">
+        <v>24</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>47</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>4</v>
+      </c>
+      <c r="J129">
+        <f t="shared" ref="J129:K139" ca="1" si="26">RANDBETWEEN(70,100)</f>
+        <v>83</v>
+      </c>
+      <c r="K129">
+        <f t="shared" ca="1" si="26"/>
+        <v>97</v>
+      </c>
+      <c r="L129">
+        <f t="shared" ref="L129:L139" ca="1" si="27">RANDBETWEEN(30,100)</f>
+        <v>32</v>
+      </c>
+      <c r="M129">
+        <f t="shared" ref="M129:M139" ca="1" si="28">RANDBETWEEN(60,100)</f>
+        <v>62</v>
+      </c>
+      <c r="N129">
+        <f t="shared" ca="1" si="24"/>
+        <v>67</v>
+      </c>
+      <c r="O129">
+        <f t="shared" ref="O129:O139" ca="1" si="29">RANDBETWEEN(40,100)</f>
+        <v>89</v>
+      </c>
+      <c r="P129">
+        <f t="shared" ref="P129:Q140" ca="1" si="30">RANDBETWEEN(0,100)</f>
+        <v>94</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" ca="1" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="R129">
+        <f t="shared" ca="1" si="25"/>
+        <v>71</v>
+      </c>
+      <c r="S129">
+        <f t="shared" ca="1" si="25"/>
+        <v>58</v>
+      </c>
+      <c r="T129">
+        <v>50</v>
+      </c>
+      <c r="U129">
+        <v>40</v>
+      </c>
+      <c r="V129">
+        <v>60</v>
+      </c>
+      <c r="W129">
+        <v>60</v>
+      </c>
+      <c r="X129">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>191</v>
+      </c>
+      <c r="D130" t="s">
+        <v>51</v>
+      </c>
+      <c r="E130">
+        <v>23</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>47</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>4</v>
+      </c>
+      <c r="J130">
+        <f t="shared" ca="1" si="26"/>
+        <v>88</v>
+      </c>
+      <c r="K130">
+        <f t="shared" ca="1" si="26"/>
+        <v>93</v>
+      </c>
+      <c r="L130">
+        <f t="shared" ca="1" si="27"/>
+        <v>77</v>
+      </c>
+      <c r="M130">
+        <f t="shared" ca="1" si="28"/>
+        <v>93</v>
+      </c>
+      <c r="N130">
+        <f t="shared" ca="1" si="24"/>
+        <v>93</v>
+      </c>
+      <c r="O130">
+        <f t="shared" ca="1" si="29"/>
+        <v>78</v>
+      </c>
+      <c r="P130">
+        <f t="shared" ca="1" si="30"/>
+        <v>41</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" ca="1" si="30"/>
+        <v>42</v>
+      </c>
+      <c r="R130">
+        <f t="shared" ca="1" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="S130">
+        <f t="shared" ca="1" si="25"/>
+        <v>53</v>
+      </c>
+      <c r="T130">
+        <v>50</v>
+      </c>
+      <c r="U130">
+        <v>40</v>
+      </c>
+      <c r="V130">
+        <v>60</v>
+      </c>
+      <c r="W130">
+        <v>60</v>
+      </c>
+      <c r="X130">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>192</v>
+      </c>
+      <c r="D131" t="s">
+        <v>71</v>
+      </c>
+      <c r="E131">
+        <v>22</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>47</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>4</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ca="1" si="26"/>
+        <v>95</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ca="1" si="26"/>
+        <v>84</v>
+      </c>
+      <c r="L131">
+        <f t="shared" ca="1" si="27"/>
+        <v>44</v>
+      </c>
+      <c r="M131">
+        <f t="shared" ca="1" si="28"/>
+        <v>89</v>
+      </c>
+      <c r="N131">
+        <f t="shared" ca="1" si="24"/>
+        <v>87</v>
+      </c>
+      <c r="O131">
+        <f t="shared" ca="1" si="29"/>
+        <v>92</v>
+      </c>
+      <c r="P131">
+        <f t="shared" ca="1" si="30"/>
+        <v>78</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" ca="1" si="30"/>
+        <v>83</v>
+      </c>
+      <c r="R131">
+        <f t="shared" ca="1" si="25"/>
+        <v>83</v>
+      </c>
+      <c r="S131">
+        <f t="shared" ca="1" si="25"/>
+        <v>54</v>
+      </c>
+      <c r="T131">
+        <v>50</v>
+      </c>
+      <c r="U131">
+        <v>40</v>
+      </c>
+      <c r="V131">
+        <v>60</v>
+      </c>
+      <c r="W131">
+        <v>60</v>
+      </c>
+      <c r="X131">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>193</v>
+      </c>
+      <c r="D132" t="s">
+        <v>71</v>
+      </c>
+      <c r="E132">
+        <v>30</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>49</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>4</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ca="1" si="26"/>
+        <v>93</v>
+      </c>
+      <c r="K132">
+        <f t="shared" ca="1" si="26"/>
+        <v>90</v>
+      </c>
+      <c r="L132">
+        <f t="shared" ca="1" si="27"/>
+        <v>70</v>
+      </c>
+      <c r="M132">
+        <f t="shared" ca="1" si="28"/>
+        <v>76</v>
+      </c>
+      <c r="N132">
+        <f t="shared" ca="1" si="24"/>
+        <v>84</v>
+      </c>
+      <c r="O132">
+        <f t="shared" ca="1" si="29"/>
+        <v>55</v>
+      </c>
+      <c r="P132">
+        <f t="shared" ca="1" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" ca="1" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="R132">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="S132">
+        <f t="shared" ca="1" si="25"/>
+        <v>37</v>
+      </c>
+      <c r="T132">
+        <v>50</v>
+      </c>
+      <c r="U132">
+        <v>40</v>
+      </c>
+      <c r="V132">
+        <v>60</v>
+      </c>
+      <c r="W132">
+        <v>60</v>
+      </c>
+      <c r="X132">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>194</v>
+      </c>
+      <c r="D133" t="s">
+        <v>74</v>
+      </c>
+      <c r="E133">
+        <v>26</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>55</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>4</v>
+      </c>
+      <c r="J133">
+        <v>90</v>
+      </c>
+      <c r="K133">
+        <v>80</v>
+      </c>
+      <c r="L133">
+        <f t="shared" ca="1" si="27"/>
+        <v>54</v>
+      </c>
+      <c r="M133">
+        <v>89</v>
+      </c>
+      <c r="N133">
+        <v>95</v>
+      </c>
+      <c r="O133">
+        <v>70</v>
+      </c>
+      <c r="P133">
+        <f t="shared" ca="1" si="30"/>
+        <v>29</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" ca="1" si="30"/>
+        <v>25</v>
+      </c>
+      <c r="R133">
+        <f t="shared" ca="1" si="25"/>
+        <v>41</v>
+      </c>
+      <c r="S133">
+        <f t="shared" ca="1" si="25"/>
+        <v>37</v>
+      </c>
+      <c r="T133">
+        <v>50</v>
+      </c>
+      <c r="U133">
+        <v>40</v>
+      </c>
+      <c r="V133">
+        <v>60</v>
+      </c>
+      <c r="W133">
+        <v>60</v>
+      </c>
+      <c r="X133">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>195</v>
+      </c>
+      <c r="D134" t="s">
+        <v>51</v>
+      </c>
+      <c r="E134">
+        <v>20</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>55</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>4</v>
+      </c>
+      <c r="J134">
+        <f t="shared" ca="1" si="26"/>
+        <v>93</v>
+      </c>
+      <c r="K134">
+        <f t="shared" ca="1" si="26"/>
+        <v>95</v>
+      </c>
+      <c r="L134">
+        <f t="shared" ca="1" si="27"/>
+        <v>80</v>
+      </c>
+      <c r="M134">
+        <f t="shared" ca="1" si="28"/>
+        <v>81</v>
+      </c>
+      <c r="N134">
+        <f t="shared" ca="1" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="O134">
+        <f t="shared" ca="1" si="29"/>
+        <v>58</v>
+      </c>
+      <c r="P134">
+        <f t="shared" ca="1" si="30"/>
+        <v>17</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" ca="1" si="30"/>
+        <v>39</v>
+      </c>
+      <c r="R134">
+        <f t="shared" ca="1" si="25"/>
+        <v>85</v>
+      </c>
+      <c r="S134">
+        <f t="shared" ca="1" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="T134">
+        <v>50</v>
+      </c>
+      <c r="U134">
+        <v>40</v>
+      </c>
+      <c r="V134">
+        <v>60</v>
+      </c>
+      <c r="W134">
+        <v>60</v>
+      </c>
+      <c r="X134">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>196</v>
+      </c>
+      <c r="D135" t="s">
+        <v>103</v>
+      </c>
+      <c r="E135">
+        <v>29</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>59</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>4</v>
+      </c>
+      <c r="J135">
+        <f t="shared" ca="1" si="26"/>
+        <v>73</v>
+      </c>
+      <c r="K135">
+        <f t="shared" ca="1" si="26"/>
+        <v>98</v>
+      </c>
+      <c r="L135">
+        <f t="shared" ca="1" si="27"/>
+        <v>52</v>
+      </c>
+      <c r="M135">
+        <f t="shared" ca="1" si="28"/>
+        <v>89</v>
+      </c>
+      <c r="N135">
+        <f t="shared" ca="1" si="24"/>
+        <v>63</v>
+      </c>
+      <c r="O135">
+        <f t="shared" ca="1" si="29"/>
+        <v>93</v>
+      </c>
+      <c r="P135">
+        <f t="shared" ca="1" si="30"/>
+        <v>58</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" ca="1" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="R135">
+        <f t="shared" ca="1" si="25"/>
+        <v>35</v>
+      </c>
+      <c r="S135">
+        <f t="shared" ca="1" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="T135">
+        <v>50</v>
+      </c>
+      <c r="U135">
+        <v>40</v>
+      </c>
+      <c r="V135">
+        <v>60</v>
+      </c>
+      <c r="W135">
+        <v>60</v>
+      </c>
+      <c r="X135">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>197</v>
+      </c>
+      <c r="D136" t="s">
+        <v>51</v>
+      </c>
+      <c r="E136">
+        <v>19</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>59</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>4</v>
+      </c>
+      <c r="J136">
+        <v>90</v>
+      </c>
+      <c r="K136">
+        <v>85</v>
+      </c>
+      <c r="L136">
+        <v>40</v>
+      </c>
+      <c r="M136">
+        <v>85</v>
+      </c>
+      <c r="N136">
+        <v>90</v>
+      </c>
+      <c r="O136">
+        <v>70</v>
+      </c>
+      <c r="P136">
+        <f t="shared" ca="1" si="30"/>
+        <v>62</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" ca="1" si="30"/>
+        <v>29</v>
+      </c>
+      <c r="R136">
+        <f t="shared" ca="1" si="25"/>
+        <v>45</v>
+      </c>
+      <c r="S136">
+        <f t="shared" ca="1" si="25"/>
+        <v>57</v>
+      </c>
+      <c r="T136">
+        <v>50</v>
+      </c>
+      <c r="U136">
+        <v>40</v>
+      </c>
+      <c r="V136">
+        <v>60</v>
+      </c>
+      <c r="W136">
+        <v>60</v>
+      </c>
+      <c r="X136">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>198</v>
+      </c>
+      <c r="D137" t="s">
+        <v>71</v>
+      </c>
+      <c r="E137">
+        <v>31</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>64</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>4</v>
+      </c>
+      <c r="J137">
+        <f t="shared" ca="1" si="26"/>
+        <v>70</v>
+      </c>
+      <c r="K137">
+        <f t="shared" ca="1" si="26"/>
+        <v>93</v>
+      </c>
+      <c r="L137">
+        <f t="shared" ca="1" si="27"/>
+        <v>66</v>
+      </c>
+      <c r="M137">
+        <f ca="1">RANDBETWEEN(70,100)</f>
+        <v>98</v>
+      </c>
+      <c r="N137">
+        <f t="shared" ca="1" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="O137">
+        <f t="shared" ca="1" si="29"/>
+        <v>42</v>
+      </c>
+      <c r="P137">
+        <f t="shared" ca="1" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" ca="1" si="30"/>
+        <v>52</v>
+      </c>
+      <c r="R137">
+        <f t="shared" ca="1" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="S137">
+        <f t="shared" ca="1" si="25"/>
+        <v>79</v>
+      </c>
+      <c r="T137">
+        <v>50</v>
+      </c>
+      <c r="U137">
+        <v>40</v>
+      </c>
+      <c r="V137">
+        <v>60</v>
+      </c>
+      <c r="W137">
+        <v>60</v>
+      </c>
+      <c r="X137">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>199</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138">
+        <v>25</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>64</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>4</v>
+      </c>
+      <c r="J138">
+        <f t="shared" ca="1" si="26"/>
+        <v>81</v>
+      </c>
+      <c r="K138">
+        <f t="shared" ca="1" si="26"/>
+        <v>81</v>
+      </c>
+      <c r="L138">
+        <f t="shared" ca="1" si="27"/>
+        <v>57</v>
+      </c>
+      <c r="M138">
+        <f ca="1">RANDBETWEEN(70,100)</f>
+        <v>77</v>
+      </c>
+      <c r="N138">
+        <f t="shared" ca="1" si="24"/>
+        <v>68</v>
+      </c>
+      <c r="O138">
+        <f t="shared" ca="1" si="29"/>
+        <v>52</v>
+      </c>
+      <c r="P138">
+        <f t="shared" ca="1" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" ca="1" si="30"/>
+        <v>39</v>
+      </c>
+      <c r="R138">
+        <f t="shared" ca="1" si="25"/>
+        <v>99</v>
+      </c>
+      <c r="S138">
+        <f t="shared" ca="1" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="T138">
+        <v>50</v>
+      </c>
+      <c r="U138">
+        <v>40</v>
+      </c>
+      <c r="V138">
+        <v>60</v>
+      </c>
+      <c r="W138">
+        <v>60</v>
+      </c>
+      <c r="X138">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>200</v>
+      </c>
+      <c r="D139" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
+        <v>64</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>4</v>
+      </c>
+      <c r="J139">
+        <f t="shared" ca="1" si="26"/>
+        <v>83</v>
+      </c>
+      <c r="K139">
+        <f t="shared" ca="1" si="26"/>
+        <v>93</v>
+      </c>
+      <c r="L139">
+        <f t="shared" ca="1" si="27"/>
+        <v>71</v>
+      </c>
+      <c r="M139">
+        <f t="shared" ca="1" si="28"/>
+        <v>85</v>
+      </c>
+      <c r="N139">
+        <f t="shared" ca="1" si="24"/>
+        <v>93</v>
+      </c>
+      <c r="O139">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="P139">
+        <f t="shared" ca="1" si="30"/>
+        <v>73</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" ca="1" si="30"/>
+        <v>80</v>
+      </c>
+      <c r="R139">
+        <f t="shared" ca="1" si="25"/>
+        <v>56</v>
+      </c>
+      <c r="S139">
+        <f t="shared" ca="1" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="T139">
+        <v>50</v>
+      </c>
+      <c r="U139">
+        <v>40</v>
+      </c>
+      <c r="V139">
+        <v>60</v>
+      </c>
+      <c r="W139">
+        <v>60</v>
+      </c>
+      <c r="X139">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>201</v>
+      </c>
+      <c r="D140" t="s">
+        <v>51</v>
+      </c>
+      <c r="E140">
+        <v>31</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+      <c r="J140">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>55</v>
+      </c>
+      <c r="K140">
+        <f t="shared" ref="K140:N141" ca="1" si="31">RANDBETWEEN(0,100)</f>
+        <v>43</v>
+      </c>
+      <c r="L140">
+        <f t="shared" ca="1" si="31"/>
+        <v>92</v>
+      </c>
+      <c r="M140">
+        <f t="shared" ca="1" si="31"/>
+        <v>53</v>
+      </c>
+      <c r="N140">
+        <f t="shared" ca="1" si="31"/>
+        <v>25</v>
+      </c>
+      <c r="O140">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>99</v>
+      </c>
+      <c r="P140">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>72</v>
+      </c>
+      <c r="Q140">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>70</v>
+      </c>
+      <c r="R140">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>100</v>
+      </c>
+      <c r="S140">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>74</v>
+      </c>
+      <c r="T140">
+        <v>50</v>
+      </c>
+      <c r="U140">
+        <v>40</v>
+      </c>
+      <c r="V140">
+        <v>60</v>
+      </c>
+      <c r="W140">
+        <v>60</v>
+      </c>
+      <c r="X140">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>202</v>
+      </c>
+      <c r="D141" t="s">
+        <v>101</v>
+      </c>
+      <c r="E141">
+        <v>34</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>4</v>
+      </c>
+      <c r="J141">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>40</v>
+      </c>
+      <c r="K141">
+        <f t="shared" ca="1" si="31"/>
+        <v>67</v>
+      </c>
+      <c r="L141">
+        <f t="shared" ca="1" si="31"/>
+        <v>83</v>
+      </c>
+      <c r="M141">
+        <f t="shared" ca="1" si="31"/>
+        <v>57</v>
+      </c>
+      <c r="N141">
+        <f t="shared" ca="1" si="31"/>
+        <v>84</v>
+      </c>
+      <c r="O141">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>75</v>
+      </c>
+      <c r="P141">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>80</v>
+      </c>
+      <c r="Q141">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>91</v>
+      </c>
+      <c r="R141">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>66</v>
+      </c>
+      <c r="S141">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>59</v>
+      </c>
+      <c r="T141">
+        <v>50</v>
+      </c>
+      <c r="U141">
+        <v>40</v>
+      </c>
+      <c r="V141">
+        <v>60</v>
+      </c>
+      <c r="W141">
+        <v>60</v>
+      </c>
+      <c r="X141">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>203</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142">
+        <v>29</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>29</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>4</v>
+      </c>
+      <c r="J142">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>94</v>
+      </c>
+      <c r="K142">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>93</v>
+      </c>
+      <c r="L142">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>66</v>
+      </c>
+      <c r="M142">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>43</v>
+      </c>
+      <c r="N142">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>98</v>
+      </c>
+      <c r="O142">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>81</v>
+      </c>
+      <c r="P142">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>98</v>
+      </c>
+      <c r="Q142">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>64</v>
+      </c>
+      <c r="R142">
+        <f t="shared" ref="R142:S144" ca="1" si="32">RANDBETWEEN(40,100)</f>
+        <v>46</v>
+      </c>
+      <c r="S142">
+        <f t="shared" ca="1" si="32"/>
+        <v>50</v>
+      </c>
+      <c r="T142">
+        <v>50</v>
+      </c>
+      <c r="U142">
+        <v>40</v>
+      </c>
+      <c r="V142">
+        <v>60</v>
+      </c>
+      <c r="W142">
+        <v>60</v>
+      </c>
+      <c r="X142">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+      <c r="C143" t="s">
+        <v>204</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143">
+        <v>31</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>4</v>
+      </c>
+      <c r="J143">
+        <f t="shared" ref="J143:K148" ca="1" si="33">RANDBETWEEN(40,100)</f>
+        <v>55</v>
+      </c>
+      <c r="K143">
+        <f t="shared" ca="1" si="33"/>
+        <v>75</v>
+      </c>
+      <c r="L143">
+        <f t="shared" ref="L143:L148" ca="1" si="34">RANDBETWEEN(60,100)</f>
+        <v>87</v>
+      </c>
+      <c r="M143">
+        <f t="shared" ref="M143:M148" ca="1" si="35">RANDBETWEEN(0,100)</f>
+        <v>99</v>
+      </c>
+      <c r="N143">
+        <f t="shared" ref="N143:N148" ca="1" si="36">RANDBETWEEN(40,100)</f>
+        <v>85</v>
+      </c>
+      <c r="O143">
+        <f t="shared" ref="O143:O148" ca="1" si="37">RANDBETWEEN(60,100)</f>
+        <v>72</v>
+      </c>
+      <c r="P143">
+        <f t="shared" ref="P143:S148" ca="1" si="38">RANDBETWEEN(0,100)</f>
+        <v>68</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" ca="1" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="R143">
+        <f t="shared" ca="1" si="32"/>
+        <v>78</v>
+      </c>
+      <c r="S143">
+        <f t="shared" ca="1" si="32"/>
+        <v>51</v>
+      </c>
+      <c r="T143">
+        <v>50</v>
+      </c>
+      <c r="U143">
+        <v>40</v>
+      </c>
+      <c r="V143">
+        <v>60</v>
+      </c>
+      <c r="W143">
+        <v>60</v>
+      </c>
+      <c r="X143">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>205</v>
+      </c>
+      <c r="D144" t="s">
+        <v>206</v>
+      </c>
+      <c r="E144">
+        <v>22</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>4</v>
+      </c>
+      <c r="J144">
+        <f t="shared" ca="1" si="33"/>
+        <v>98</v>
+      </c>
+      <c r="K144">
+        <f t="shared" ca="1" si="33"/>
+        <v>91</v>
+      </c>
+      <c r="L144">
+        <f t="shared" ca="1" si="34"/>
+        <v>63</v>
+      </c>
+      <c r="M144">
+        <f t="shared" ca="1" si="35"/>
+        <v>38</v>
+      </c>
+      <c r="N144">
+        <f t="shared" ca="1" si="36"/>
+        <v>100</v>
+      </c>
+      <c r="O144">
+        <f t="shared" ca="1" si="37"/>
+        <v>85</v>
+      </c>
+      <c r="P144">
+        <f t="shared" ca="1" si="38"/>
+        <v>69</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" ca="1" si="38"/>
+        <v>7</v>
+      </c>
+      <c r="R144">
+        <f t="shared" ca="1" si="32"/>
+        <v>79</v>
+      </c>
+      <c r="S144">
+        <f t="shared" ca="1" si="32"/>
+        <v>48</v>
+      </c>
+      <c r="T144">
+        <v>50</v>
+      </c>
+      <c r="U144">
+        <v>40</v>
+      </c>
+      <c r="V144">
+        <v>60</v>
+      </c>
+      <c r="W144">
+        <v>60</v>
+      </c>
+      <c r="X144">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s">
+        <v>207</v>
+      </c>
+      <c r="D145" t="s">
+        <v>71</v>
+      </c>
+      <c r="E145">
+        <v>20</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>4</v>
+      </c>
+      <c r="J145">
+        <f t="shared" ca="1" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="K145">
+        <f t="shared" ca="1" si="33"/>
+        <v>83</v>
+      </c>
+      <c r="L145">
+        <f t="shared" ca="1" si="34"/>
+        <v>68</v>
+      </c>
+      <c r="M145">
+        <f t="shared" ca="1" si="35"/>
+        <v>70</v>
+      </c>
+      <c r="N145">
+        <f t="shared" ca="1" si="36"/>
+        <v>44</v>
+      </c>
+      <c r="O145">
+        <f t="shared" ca="1" si="37"/>
+        <v>79</v>
+      </c>
+      <c r="P145">
+        <f t="shared" ca="1" si="38"/>
+        <v>29</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" ca="1" si="38"/>
+        <v>54</v>
+      </c>
+      <c r="R145">
+        <f t="shared" ca="1" si="38"/>
+        <v>79</v>
+      </c>
+      <c r="S145">
+        <f t="shared" ca="1" si="38"/>
+        <v>31</v>
+      </c>
+      <c r="T145">
+        <v>50</v>
+      </c>
+      <c r="U145">
+        <v>40</v>
+      </c>
+      <c r="V145">
+        <v>60</v>
+      </c>
+      <c r="W145">
+        <v>60</v>
+      </c>
+      <c r="X145">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>208</v>
+      </c>
+      <c r="D146" t="s">
+        <v>57</v>
+      </c>
+      <c r="E146">
+        <v>27</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>38</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>4</v>
+      </c>
+      <c r="J146">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>97</v>
+      </c>
+      <c r="K146">
+        <f t="shared" ca="1" si="33"/>
+        <v>81</v>
+      </c>
+      <c r="L146">
+        <f t="shared" ca="1" si="34"/>
+        <v>69</v>
+      </c>
+      <c r="M146">
+        <f t="shared" ca="1" si="35"/>
+        <v>73</v>
+      </c>
+      <c r="N146">
+        <f t="shared" ca="1" si="36"/>
+        <v>51</v>
+      </c>
+      <c r="O146">
+        <f t="shared" ca="1" si="37"/>
+        <v>96</v>
+      </c>
+      <c r="P146">
+        <f t="shared" ca="1" si="38"/>
+        <v>13</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" ca="1" si="38"/>
+        <v>63</v>
+      </c>
+      <c r="R146">
+        <f t="shared" ca="1" si="38"/>
+        <v>77</v>
+      </c>
+      <c r="S146">
+        <f t="shared" ca="1" si="38"/>
+        <v>59</v>
+      </c>
+      <c r="T146">
+        <v>50</v>
+      </c>
+      <c r="U146">
+        <v>40</v>
+      </c>
+      <c r="V146">
+        <v>60</v>
+      </c>
+      <c r="W146">
+        <v>60</v>
+      </c>
+      <c r="X146">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>6</v>
+      </c>
+      <c r="C147" t="s">
+        <v>211</v>
+      </c>
+      <c r="D147" t="s">
+        <v>130</v>
+      </c>
+      <c r="E147">
+        <v>25</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>38</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>4</v>
+      </c>
+      <c r="J147">
+        <f t="shared" ref="J147:S162" ca="1" si="39">RANDBETWEEN(60,100)</f>
+        <v>93</v>
+      </c>
+      <c r="K147">
+        <f t="shared" ca="1" si="33"/>
+        <v>66</v>
+      </c>
+      <c r="L147">
+        <f t="shared" ca="1" si="34"/>
+        <v>95</v>
+      </c>
+      <c r="M147">
+        <f t="shared" ca="1" si="35"/>
+        <v>39</v>
+      </c>
+      <c r="N147">
+        <f t="shared" ca="1" si="36"/>
+        <v>71</v>
+      </c>
+      <c r="O147">
+        <f t="shared" ca="1" si="37"/>
+        <v>68</v>
+      </c>
+      <c r="P147">
+        <f t="shared" ca="1" si="38"/>
+        <v>25</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" ca="1" si="38"/>
+        <v>80</v>
+      </c>
+      <c r="R147">
+        <f t="shared" ca="1" si="38"/>
+        <v>29</v>
+      </c>
+      <c r="S147">
+        <f t="shared" ca="1" si="38"/>
+        <v>89</v>
+      </c>
+      <c r="T147">
+        <v>50</v>
+      </c>
+      <c r="U147">
+        <v>40</v>
+      </c>
+      <c r="V147">
+        <v>60</v>
+      </c>
+      <c r="W147">
+        <v>60</v>
+      </c>
+      <c r="X147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>209</v>
+      </c>
+      <c r="D148" t="s">
+        <v>57</v>
+      </c>
+      <c r="E148">
+        <v>27</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>40</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>4</v>
+      </c>
+      <c r="J148">
+        <f t="shared" ca="1" si="39"/>
+        <v>71</v>
+      </c>
+      <c r="K148">
+        <f t="shared" ca="1" si="33"/>
+        <v>59</v>
+      </c>
+      <c r="L148">
+        <f t="shared" ca="1" si="34"/>
+        <v>79</v>
+      </c>
+      <c r="M148">
+        <f t="shared" ca="1" si="35"/>
+        <v>16</v>
+      </c>
+      <c r="N148">
+        <f t="shared" ca="1" si="36"/>
+        <v>89</v>
+      </c>
+      <c r="O148">
+        <f t="shared" ca="1" si="37"/>
+        <v>85</v>
+      </c>
+      <c r="P148">
+        <f t="shared" ca="1" si="38"/>
+        <v>53</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" ca="1" si="38"/>
+        <v>53</v>
+      </c>
+      <c r="R148">
+        <f t="shared" ca="1" si="38"/>
+        <v>23</v>
+      </c>
+      <c r="S148">
+        <f t="shared" ca="1" si="38"/>
+        <v>50</v>
+      </c>
+      <c r="T148">
+        <v>50</v>
+      </c>
+      <c r="U148">
+        <v>40</v>
+      </c>
+      <c r="V148">
+        <v>60</v>
+      </c>
+      <c r="W148">
+        <v>60</v>
+      </c>
+      <c r="X148">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>210</v>
+      </c>
+      <c r="D149" t="s">
+        <v>78</v>
+      </c>
+      <c r="E149">
+        <v>25</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>40</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>4</v>
+      </c>
+      <c r="J149">
+        <f t="shared" ca="1" si="39"/>
+        <v>61</v>
+      </c>
+      <c r="K149">
+        <f t="shared" ca="1" si="39"/>
+        <v>98</v>
+      </c>
+      <c r="L149">
+        <f t="shared" ca="1" si="39"/>
+        <v>73</v>
+      </c>
+      <c r="M149">
+        <f t="shared" ca="1" si="39"/>
+        <v>74</v>
+      </c>
+      <c r="N149">
+        <f t="shared" ca="1" si="39"/>
+        <v>100</v>
+      </c>
+      <c r="O149">
+        <f t="shared" ca="1" si="39"/>
+        <v>78</v>
+      </c>
+      <c r="P149">
+        <f t="shared" ca="1" si="39"/>
+        <v>76</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" ca="1" si="39"/>
+        <v>98</v>
+      </c>
+      <c r="R149">
+        <f t="shared" ca="1" si="39"/>
+        <v>94</v>
+      </c>
+      <c r="S149">
+        <f t="shared" ca="1" si="39"/>
+        <v>77</v>
+      </c>
+      <c r="T149">
+        <v>50</v>
+      </c>
+      <c r="U149">
+        <v>40</v>
+      </c>
+      <c r="V149">
+        <v>60</v>
+      </c>
+      <c r="W149">
+        <v>60</v>
+      </c>
+      <c r="X149">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>212</v>
+      </c>
+      <c r="D150" t="s">
+        <v>57</v>
+      </c>
+      <c r="E150">
+        <v>24</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>45</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>4</v>
+      </c>
+      <c r="J150">
+        <f t="shared" ca="1" si="39"/>
+        <v>70</v>
+      </c>
+      <c r="K150">
+        <f t="shared" ca="1" si="39"/>
+        <v>75</v>
+      </c>
+      <c r="L150">
+        <f t="shared" ca="1" si="39"/>
+        <v>66</v>
+      </c>
+      <c r="M150">
+        <f t="shared" ca="1" si="39"/>
+        <v>77</v>
+      </c>
+      <c r="N150">
+        <f t="shared" ca="1" si="39"/>
+        <v>68</v>
+      </c>
+      <c r="O150">
+        <f t="shared" ca="1" si="39"/>
+        <v>64</v>
+      </c>
+      <c r="P150">
+        <f t="shared" ca="1" si="39"/>
+        <v>95</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" ca="1" si="39"/>
+        <v>78</v>
+      </c>
+      <c r="R150">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>80</v>
+      </c>
+      <c r="S150">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>77</v>
+      </c>
+      <c r="T150">
+        <v>50</v>
+      </c>
+      <c r="U150">
+        <v>40</v>
+      </c>
+      <c r="V150">
+        <v>60</v>
+      </c>
+      <c r="W150">
+        <v>60</v>
+      </c>
+      <c r="X150">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>213</v>
+      </c>
+      <c r="D151" t="s">
+        <v>51</v>
+      </c>
+      <c r="E151">
+        <v>28</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>47</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>4</v>
+      </c>
+      <c r="J151">
+        <f ca="1">RANDBETWEEN(70,100)</f>
+        <v>92</v>
+      </c>
+      <c r="K151">
+        <f ca="1">RANDBETWEEN(70,100)</f>
+        <v>74</v>
+      </c>
+      <c r="L151">
+        <f ca="1">RANDBETWEEN(30,100)</f>
+        <v>81</v>
+      </c>
+      <c r="M151">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>96</v>
+      </c>
+      <c r="N151">
+        <f t="shared" ca="1" si="39"/>
+        <v>96</v>
+      </c>
+      <c r="O151">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>51</v>
+      </c>
+      <c r="P151">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>24</v>
+      </c>
+      <c r="Q151">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>14</v>
+      </c>
+      <c r="R151">
+        <f t="shared" ref="R151:S162" ca="1" si="40">RANDBETWEEN(0,100)</f>
+        <v>23</v>
+      </c>
+      <c r="S151">
+        <f t="shared" ca="1" si="40"/>
+        <v>32</v>
+      </c>
+      <c r="T151">
+        <v>50</v>
+      </c>
+      <c r="U151">
+        <v>40</v>
+      </c>
+      <c r="V151">
+        <v>60</v>
+      </c>
+      <c r="W151">
+        <v>60</v>
+      </c>
+      <c r="X151">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>214</v>
+      </c>
+      <c r="D152" t="s">
+        <v>57</v>
+      </c>
+      <c r="E152">
+        <v>22</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>47</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>4</v>
+      </c>
+      <c r="J152">
+        <f t="shared" ref="J152:K162" ca="1" si="41">RANDBETWEEN(70,100)</f>
+        <v>94</v>
+      </c>
+      <c r="K152">
+        <f t="shared" ca="1" si="41"/>
+        <v>87</v>
+      </c>
+      <c r="L152">
+        <f t="shared" ref="L152:L162" ca="1" si="42">RANDBETWEEN(30,100)</f>
+        <v>62</v>
+      </c>
+      <c r="M152">
+        <f t="shared" ref="M152:M162" ca="1" si="43">RANDBETWEEN(60,100)</f>
+        <v>90</v>
+      </c>
+      <c r="N152">
+        <f t="shared" ca="1" si="39"/>
+        <v>98</v>
+      </c>
+      <c r="O152">
+        <f t="shared" ref="O152:O162" ca="1" si="44">RANDBETWEEN(40,100)</f>
+        <v>72</v>
+      </c>
+      <c r="P152">
+        <f t="shared" ref="P152:Q162" ca="1" si="45">RANDBETWEEN(0,100)</f>
+        <v>23</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" ca="1" si="45"/>
+        <v>81</v>
+      </c>
+      <c r="R152">
+        <f t="shared" ca="1" si="40"/>
+        <v>99</v>
+      </c>
+      <c r="S152">
+        <f t="shared" ca="1" si="40"/>
+        <v>60</v>
+      </c>
+      <c r="T152">
+        <v>50</v>
+      </c>
+      <c r="U152">
+        <v>40</v>
+      </c>
+      <c r="V152">
+        <v>60</v>
+      </c>
+      <c r="W152">
+        <v>60</v>
+      </c>
+      <c r="X152">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>215</v>
+      </c>
+      <c r="D153" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153">
+        <v>26</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>47</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>4</v>
+      </c>
+      <c r="J153">
+        <f t="shared" ca="1" si="41"/>
+        <v>80</v>
+      </c>
+      <c r="K153">
+        <f t="shared" ca="1" si="41"/>
+        <v>87</v>
+      </c>
+      <c r="L153">
+        <f t="shared" ca="1" si="42"/>
+        <v>66</v>
+      </c>
+      <c r="M153">
+        <f t="shared" ca="1" si="43"/>
+        <v>82</v>
+      </c>
+      <c r="N153">
+        <f t="shared" ca="1" si="39"/>
+        <v>93</v>
+      </c>
+      <c r="O153">
+        <f t="shared" ca="1" si="44"/>
+        <v>76</v>
+      </c>
+      <c r="P153">
+        <f t="shared" ca="1" si="45"/>
+        <v>51</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" ca="1" si="45"/>
+        <v>94</v>
+      </c>
+      <c r="R153">
+        <f t="shared" ca="1" si="40"/>
+        <v>58</v>
+      </c>
+      <c r="S153">
+        <f t="shared" ca="1" si="40"/>
+        <v>22</v>
+      </c>
+      <c r="T153">
+        <v>50</v>
+      </c>
+      <c r="U153">
+        <v>40</v>
+      </c>
+      <c r="V153">
+        <v>60</v>
+      </c>
+      <c r="W153">
+        <v>60</v>
+      </c>
+      <c r="X153">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>216</v>
+      </c>
+      <c r="D154" t="s">
+        <v>217</v>
+      </c>
+      <c r="E154">
+        <v>27</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154" t="s">
+        <v>47</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>4</v>
+      </c>
+      <c r="J154">
+        <f t="shared" ca="1" si="41"/>
+        <v>76</v>
+      </c>
+      <c r="K154">
+        <f t="shared" ca="1" si="41"/>
+        <v>89</v>
+      </c>
+      <c r="L154">
+        <f t="shared" ca="1" si="42"/>
+        <v>72</v>
+      </c>
+      <c r="M154">
+        <f t="shared" ca="1" si="43"/>
+        <v>88</v>
+      </c>
+      <c r="N154">
+        <f t="shared" ca="1" si="39"/>
+        <v>90</v>
+      </c>
+      <c r="O154">
+        <f t="shared" ca="1" si="44"/>
+        <v>82</v>
+      </c>
+      <c r="P154">
+        <f t="shared" ca="1" si="45"/>
+        <v>77</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" ca="1" si="45"/>
+        <v>72</v>
+      </c>
+      <c r="R154">
+        <f t="shared" ca="1" si="40"/>
+        <v>35</v>
+      </c>
+      <c r="S154">
+        <f t="shared" ca="1" si="40"/>
+        <v>27</v>
+      </c>
+      <c r="T154">
+        <v>50</v>
+      </c>
+      <c r="U154">
+        <v>40</v>
+      </c>
+      <c r="V154">
+        <v>60</v>
+      </c>
+      <c r="W154">
+        <v>60</v>
+      </c>
+      <c r="X154">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>218</v>
+      </c>
+      <c r="D155" t="s">
+        <v>57</v>
+      </c>
+      <c r="E155">
+        <v>22</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>49</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>4</v>
+      </c>
+      <c r="J155">
+        <f t="shared" ca="1" si="41"/>
+        <v>79</v>
+      </c>
+      <c r="K155">
+        <f t="shared" ca="1" si="41"/>
+        <v>95</v>
+      </c>
+      <c r="L155">
+        <f t="shared" ca="1" si="42"/>
+        <v>50</v>
+      </c>
+      <c r="M155">
+        <f t="shared" ca="1" si="43"/>
+        <v>60</v>
+      </c>
+      <c r="N155">
+        <f t="shared" ca="1" si="39"/>
+        <v>79</v>
+      </c>
+      <c r="O155">
+        <f t="shared" ca="1" si="44"/>
+        <v>41</v>
+      </c>
+      <c r="P155">
+        <f t="shared" ca="1" si="45"/>
+        <v>82</v>
+      </c>
+      <c r="Q155">
+        <f t="shared" ca="1" si="45"/>
+        <v>34</v>
+      </c>
+      <c r="R155">
+        <f t="shared" ca="1" si="40"/>
+        <v>8</v>
+      </c>
+      <c r="S155">
+        <f t="shared" ca="1" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="T155">
+        <v>50</v>
+      </c>
+      <c r="U155">
+        <v>40</v>
+      </c>
+      <c r="V155">
+        <v>60</v>
+      </c>
+      <c r="W155">
+        <v>60</v>
+      </c>
+      <c r="X155">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>219</v>
+      </c>
+      <c r="D156" t="s">
+        <v>220</v>
+      </c>
+      <c r="E156">
+        <v>25</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156" t="s">
+        <v>55</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>4</v>
+      </c>
+      <c r="J156">
+        <f t="shared" ca="1" si="41"/>
+        <v>97</v>
+      </c>
+      <c r="K156">
+        <f t="shared" ca="1" si="41"/>
+        <v>71</v>
+      </c>
+      <c r="L156">
+        <f t="shared" ca="1" si="42"/>
+        <v>39</v>
+      </c>
+      <c r="M156">
+        <f t="shared" ca="1" si="43"/>
+        <v>66</v>
+      </c>
+      <c r="N156">
+        <f t="shared" ca="1" si="39"/>
+        <v>96</v>
+      </c>
+      <c r="O156">
+        <f t="shared" ca="1" si="44"/>
+        <v>47</v>
+      </c>
+      <c r="P156">
+        <f t="shared" ca="1" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" ca="1" si="45"/>
+        <v>58</v>
+      </c>
+      <c r="R156">
+        <f t="shared" ca="1" si="40"/>
+        <v>29</v>
+      </c>
+      <c r="S156">
+        <f t="shared" ca="1" si="40"/>
+        <v>52</v>
+      </c>
+      <c r="T156">
+        <v>50</v>
+      </c>
+      <c r="U156">
+        <v>40</v>
+      </c>
+      <c r="V156">
+        <v>60</v>
+      </c>
+      <c r="W156">
+        <v>60</v>
+      </c>
+      <c r="X156">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>223</v>
+      </c>
+      <c r="D157" t="s">
+        <v>51</v>
+      </c>
+      <c r="E157">
+        <v>23</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>55</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>4</v>
+      </c>
+      <c r="J157">
+        <f t="shared" ca="1" si="41"/>
+        <v>96</v>
+      </c>
+      <c r="K157">
+        <f t="shared" ca="1" si="41"/>
+        <v>89</v>
+      </c>
+      <c r="L157">
+        <f t="shared" ca="1" si="42"/>
+        <v>91</v>
+      </c>
+      <c r="M157">
+        <f t="shared" ca="1" si="43"/>
+        <v>90</v>
+      </c>
+      <c r="N157">
+        <f t="shared" ca="1" si="39"/>
+        <v>77</v>
+      </c>
+      <c r="O157">
+        <f t="shared" ca="1" si="44"/>
+        <v>59</v>
+      </c>
+      <c r="P157">
+        <f t="shared" ca="1" si="45"/>
+        <v>52</v>
+      </c>
+      <c r="Q157">
+        <f t="shared" ca="1" si="45"/>
+        <v>75</v>
+      </c>
+      <c r="R157">
+        <f t="shared" ca="1" si="40"/>
+        <v>37</v>
+      </c>
+      <c r="S157">
+        <f t="shared" ca="1" si="40"/>
+        <v>80</v>
+      </c>
+      <c r="T157">
+        <v>50</v>
+      </c>
+      <c r="U157">
+        <v>40</v>
+      </c>
+      <c r="V157">
+        <v>60</v>
+      </c>
+      <c r="W157">
+        <v>60</v>
+      </c>
+      <c r="X157">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>6</v>
+      </c>
+      <c r="C158" t="s">
+        <v>221</v>
+      </c>
+      <c r="D158" t="s">
+        <v>71</v>
+      </c>
+      <c r="E158">
+        <v>26</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>59</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>4</v>
+      </c>
+      <c r="J158">
+        <f t="shared" ca="1" si="41"/>
+        <v>100</v>
+      </c>
+      <c r="K158">
+        <f t="shared" ca="1" si="41"/>
+        <v>90</v>
+      </c>
+      <c r="L158">
+        <f t="shared" ca="1" si="42"/>
+        <v>52</v>
+      </c>
+      <c r="M158">
+        <f t="shared" ca="1" si="43"/>
+        <v>66</v>
+      </c>
+      <c r="N158">
+        <f t="shared" ca="1" si="39"/>
+        <v>74</v>
+      </c>
+      <c r="O158">
+        <f t="shared" ca="1" si="44"/>
+        <v>69</v>
+      </c>
+      <c r="P158">
+        <f t="shared" ca="1" si="45"/>
+        <v>35</v>
+      </c>
+      <c r="Q158">
+        <f t="shared" ca="1" si="45"/>
+        <v>61</v>
+      </c>
+      <c r="R158">
+        <f t="shared" ca="1" si="40"/>
+        <v>71</v>
+      </c>
+      <c r="S158">
+        <f t="shared" ca="1" si="40"/>
+        <v>53</v>
+      </c>
+      <c r="T158">
+        <v>50</v>
+      </c>
+      <c r="U158">
+        <v>40</v>
+      </c>
+      <c r="V158">
+        <v>60</v>
+      </c>
+      <c r="W158">
+        <v>60</v>
+      </c>
+      <c r="X158">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>6</v>
+      </c>
+      <c r="C159" t="s">
+        <v>222</v>
+      </c>
+      <c r="D159" t="s">
+        <v>74</v>
+      </c>
+      <c r="E159">
+        <v>25</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>59</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>4</v>
+      </c>
+      <c r="J159">
+        <f t="shared" ca="1" si="41"/>
+        <v>74</v>
+      </c>
+      <c r="K159">
+        <f t="shared" ca="1" si="41"/>
+        <v>87</v>
+      </c>
+      <c r="L159">
+        <f t="shared" ca="1" si="42"/>
+        <v>32</v>
+      </c>
+      <c r="M159">
+        <f t="shared" ca="1" si="43"/>
+        <v>64</v>
+      </c>
+      <c r="N159">
+        <f t="shared" ca="1" si="39"/>
+        <v>78</v>
+      </c>
+      <c r="O159">
+        <f t="shared" ca="1" si="44"/>
+        <v>72</v>
+      </c>
+      <c r="P159">
+        <f t="shared" ca="1" si="45"/>
+        <v>48</v>
+      </c>
+      <c r="Q159">
+        <f t="shared" ca="1" si="45"/>
+        <v>69</v>
+      </c>
+      <c r="R159">
+        <f t="shared" ca="1" si="40"/>
+        <v>98</v>
+      </c>
+      <c r="S159">
+        <f t="shared" ca="1" si="40"/>
+        <v>80</v>
+      </c>
+      <c r="T159">
+        <v>50</v>
+      </c>
+      <c r="U159">
+        <v>40</v>
+      </c>
+      <c r="V159">
+        <v>60</v>
+      </c>
+      <c r="W159">
+        <v>60</v>
+      </c>
+      <c r="X159">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>224</v>
+      </c>
+      <c r="D160" t="s">
+        <v>101</v>
+      </c>
+      <c r="E160">
+        <v>24</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>64</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>4</v>
+      </c>
+      <c r="J160">
+        <f t="shared" ca="1" si="41"/>
+        <v>80</v>
+      </c>
+      <c r="K160">
+        <f t="shared" ca="1" si="41"/>
+        <v>81</v>
+      </c>
+      <c r="L160">
+        <f t="shared" ca="1" si="42"/>
+        <v>91</v>
+      </c>
+      <c r="M160">
+        <f ca="1">RANDBETWEEN(70,100)</f>
+        <v>94</v>
+      </c>
+      <c r="N160">
+        <f t="shared" ca="1" si="39"/>
+        <v>85</v>
+      </c>
+      <c r="O160">
+        <f t="shared" ca="1" si="44"/>
+        <v>54</v>
+      </c>
+      <c r="P160">
+        <f t="shared" ca="1" si="45"/>
+        <v>18</v>
+      </c>
+      <c r="Q160">
+        <f t="shared" ca="1" si="45"/>
+        <v>97</v>
+      </c>
+      <c r="R160">
+        <f t="shared" ca="1" si="40"/>
+        <v>44</v>
+      </c>
+      <c r="S160">
+        <f t="shared" ca="1" si="40"/>
+        <v>72</v>
+      </c>
+      <c r="T160">
+        <v>50</v>
+      </c>
+      <c r="U160">
+        <v>40</v>
+      </c>
+      <c r="V160">
+        <v>60</v>
+      </c>
+      <c r="W160">
+        <v>60</v>
+      </c>
+      <c r="X160">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>225</v>
+      </c>
+      <c r="D161" t="s">
+        <v>57</v>
+      </c>
+      <c r="E161">
+        <v>24</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>64</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>4</v>
+      </c>
+      <c r="J161">
+        <v>80</v>
+      </c>
+      <c r="K161">
+        <f t="shared" ca="1" si="41"/>
+        <v>73</v>
+      </c>
+      <c r="L161">
+        <f t="shared" ca="1" si="42"/>
+        <v>34</v>
+      </c>
+      <c r="M161">
+        <v>90</v>
+      </c>
+      <c r="N161">
+        <v>80</v>
+      </c>
+      <c r="O161">
+        <v>80</v>
+      </c>
+      <c r="P161">
+        <f t="shared" ca="1" si="45"/>
+        <v>69</v>
+      </c>
+      <c r="Q161">
+        <f t="shared" ca="1" si="45"/>
+        <v>54</v>
+      </c>
+      <c r="R161">
+        <f t="shared" ca="1" si="40"/>
+        <v>32</v>
+      </c>
+      <c r="S161">
+        <f t="shared" ca="1" si="40"/>
+        <v>50</v>
+      </c>
+      <c r="T161">
+        <v>50</v>
+      </c>
+      <c r="U161">
+        <v>40</v>
+      </c>
+      <c r="V161">
+        <v>60</v>
+      </c>
+      <c r="W161">
+        <v>60</v>
+      </c>
+      <c r="X161">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>226</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162">
+        <v>33</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>64</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>4</v>
+      </c>
+      <c r="J162">
+        <f t="shared" ca="1" si="41"/>
+        <v>74</v>
+      </c>
+      <c r="K162">
+        <f t="shared" ca="1" si="41"/>
+        <v>79</v>
+      </c>
+      <c r="L162">
+        <f t="shared" ca="1" si="42"/>
+        <v>95</v>
+      </c>
+      <c r="M162">
+        <f t="shared" ca="1" si="43"/>
+        <v>66</v>
+      </c>
+      <c r="N162">
+        <f t="shared" ca="1" si="39"/>
+        <v>66</v>
+      </c>
+      <c r="O162">
+        <f t="shared" ca="1" si="44"/>
+        <v>60</v>
+      </c>
+      <c r="P162">
+        <f t="shared" ca="1" si="45"/>
+        <v>32</v>
+      </c>
+      <c r="Q162">
+        <f t="shared" ca="1" si="45"/>
+        <v>93</v>
+      </c>
+      <c r="R162">
+        <f t="shared" ca="1" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <f t="shared" ca="1" si="40"/>
+        <v>11</v>
+      </c>
+      <c r="T162">
+        <v>50</v>
+      </c>
+      <c r="U162">
+        <v>40</v>
+      </c>
+      <c r="V162">
+        <v>60</v>
+      </c>
+      <c r="W162">
+        <v>60</v>
+      </c>
+      <c r="X162">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>227</v>
+      </c>
+      <c r="D163" t="s">
+        <v>37</v>
+      </c>
+      <c r="E163">
+        <v>32</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>25</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>4</v>
+      </c>
+      <c r="J163">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>34</v>
+      </c>
+      <c r="K163">
+        <f t="shared" ref="K163:N164" ca="1" si="46">RANDBETWEEN(0,100)</f>
+        <v>78</v>
+      </c>
+      <c r="L163">
+        <f t="shared" ca="1" si="46"/>
+        <v>28</v>
+      </c>
+      <c r="M163">
+        <f t="shared" ca="1" si="46"/>
+        <v>14</v>
+      </c>
+      <c r="N163">
+        <f t="shared" ca="1" si="46"/>
+        <v>33</v>
+      </c>
+      <c r="O163">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>92</v>
+      </c>
+      <c r="P163">
+        <v>95</v>
+      </c>
+      <c r="Q163">
+        <v>95</v>
+      </c>
+      <c r="R163">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>80</v>
+      </c>
+      <c r="S163">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>43</v>
+      </c>
+      <c r="T163">
+        <v>50</v>
+      </c>
+      <c r="U163">
+        <v>40</v>
+      </c>
+      <c r="V163">
+        <v>60</v>
+      </c>
+      <c r="W163">
+        <v>60</v>
+      </c>
+      <c r="X163">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>228</v>
+      </c>
+      <c r="D164" t="s">
+        <v>37</v>
+      </c>
+      <c r="E164">
+        <v>29</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>25</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>4</v>
+      </c>
+      <c r="J164">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>58</v>
+      </c>
+      <c r="K164">
+        <f t="shared" ca="1" si="46"/>
+        <v>23</v>
+      </c>
+      <c r="L164">
+        <f t="shared" ca="1" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="M164">
+        <f t="shared" ca="1" si="46"/>
+        <v>86</v>
+      </c>
+      <c r="N164">
+        <f t="shared" ca="1" si="46"/>
+        <v>87</v>
+      </c>
+      <c r="O164">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>61</v>
+      </c>
+      <c r="P164">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>76</v>
+      </c>
+      <c r="Q164">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>82</v>
+      </c>
+      <c r="R164">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>54</v>
+      </c>
+      <c r="S164">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>71</v>
+      </c>
+      <c r="T164">
+        <v>50</v>
+      </c>
+      <c r="U164">
+        <v>40</v>
+      </c>
+      <c r="V164">
+        <v>60</v>
+      </c>
+      <c r="W164">
+        <v>60</v>
+      </c>
+      <c r="X164">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>229</v>
+      </c>
+      <c r="D165" t="s">
+        <v>37</v>
+      </c>
+      <c r="E165">
+        <v>22</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>29</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>4</v>
+      </c>
+      <c r="J165">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>63</v>
+      </c>
+      <c r="K165">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>55</v>
+      </c>
+      <c r="L165">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>70</v>
+      </c>
+      <c r="M165">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>64</v>
+      </c>
+      <c r="N165">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>81</v>
+      </c>
+      <c r="O165">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>84</v>
+      </c>
+      <c r="P165">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>14</v>
+      </c>
+      <c r="Q165">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>27</v>
+      </c>
+      <c r="R165">
+        <f t="shared" ref="R165:S167" ca="1" si="47">RANDBETWEEN(40,100)</f>
+        <v>78</v>
+      </c>
+      <c r="S165">
+        <f t="shared" ca="1" si="47"/>
+        <v>63</v>
+      </c>
+      <c r="T165">
+        <v>50</v>
+      </c>
+      <c r="U165">
+        <v>40</v>
+      </c>
+      <c r="V165">
+        <v>60</v>
+      </c>
+      <c r="W165">
+        <v>60</v>
+      </c>
+      <c r="X165">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>230</v>
+      </c>
+      <c r="D166" t="s">
+        <v>37</v>
+      </c>
+      <c r="E166">
+        <v>29</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>29</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>4</v>
+      </c>
+      <c r="J166">
+        <f t="shared" ref="J166:K170" ca="1" si="48">RANDBETWEEN(40,100)</f>
+        <v>96</v>
+      </c>
+      <c r="K166">
+        <f t="shared" ca="1" si="48"/>
+        <v>49</v>
+      </c>
+      <c r="L166">
+        <f t="shared" ref="L166:L170" ca="1" si="49">RANDBETWEEN(60,100)</f>
+        <v>83</v>
+      </c>
+      <c r="M166">
+        <f t="shared" ref="M166:M170" ca="1" si="50">RANDBETWEEN(0,100)</f>
+        <v>41</v>
+      </c>
+      <c r="N166">
+        <f t="shared" ref="N166:N170" ca="1" si="51">RANDBETWEEN(40,100)</f>
+        <v>80</v>
+      </c>
+      <c r="O166">
+        <f t="shared" ref="O166:O170" ca="1" si="52">RANDBETWEEN(60,100)</f>
+        <v>87</v>
+      </c>
+      <c r="P166">
+        <f t="shared" ref="P166:S171" ca="1" si="53">RANDBETWEEN(0,100)</f>
+        <v>30</v>
+      </c>
+      <c r="Q166">
+        <f t="shared" ca="1" si="53"/>
+        <v>18</v>
+      </c>
+      <c r="R166">
+        <f t="shared" ca="1" si="47"/>
+        <v>58</v>
+      </c>
+      <c r="S166">
+        <f t="shared" ca="1" si="47"/>
+        <v>57</v>
+      </c>
+      <c r="T166">
+        <v>50</v>
+      </c>
+      <c r="U166">
+        <v>40</v>
+      </c>
+      <c r="V166">
+        <v>60</v>
+      </c>
+      <c r="W166">
+        <v>60</v>
+      </c>
+      <c r="X166">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>231</v>
+      </c>
+      <c r="D167" t="s">
+        <v>37</v>
+      </c>
+      <c r="E167">
+        <v>29</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>29</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
+      <c r="J167">
+        <f t="shared" ca="1" si="48"/>
+        <v>59</v>
+      </c>
+      <c r="K167">
+        <f t="shared" ca="1" si="48"/>
+        <v>100</v>
+      </c>
+      <c r="L167">
+        <f t="shared" ca="1" si="49"/>
+        <v>87</v>
+      </c>
+      <c r="M167">
+        <f t="shared" ca="1" si="50"/>
+        <v>57</v>
+      </c>
+      <c r="N167">
+        <f t="shared" ca="1" si="51"/>
+        <v>72</v>
+      </c>
+      <c r="O167">
+        <f t="shared" ca="1" si="52"/>
+        <v>74</v>
+      </c>
+      <c r="P167">
+        <f t="shared" ca="1" si="53"/>
+        <v>10</v>
+      </c>
+      <c r="Q167">
+        <f t="shared" ca="1" si="53"/>
+        <v>32</v>
+      </c>
+      <c r="R167">
+        <f t="shared" ca="1" si="47"/>
+        <v>89</v>
+      </c>
+      <c r="S167">
+        <f t="shared" ca="1" si="47"/>
+        <v>75</v>
+      </c>
+      <c r="T167">
+        <v>50</v>
+      </c>
+      <c r="U167">
+        <v>40</v>
+      </c>
+      <c r="V167">
+        <v>60</v>
+      </c>
+      <c r="W167">
+        <v>60</v>
+      </c>
+      <c r="X167">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>232</v>
+      </c>
+      <c r="D168" t="s">
+        <v>233</v>
+      </c>
+      <c r="E168">
+        <v>20</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>29</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+      <c r="J168">
+        <f t="shared" ca="1" si="48"/>
+        <v>41</v>
+      </c>
+      <c r="K168">
+        <f t="shared" ca="1" si="48"/>
+        <v>65</v>
+      </c>
+      <c r="L168">
+        <f t="shared" ca="1" si="49"/>
+        <v>97</v>
+      </c>
+      <c r="M168">
+        <f t="shared" ca="1" si="50"/>
+        <v>39</v>
+      </c>
+      <c r="N168">
+        <f t="shared" ca="1" si="51"/>
+        <v>99</v>
+      </c>
+      <c r="O168">
+        <f t="shared" ca="1" si="52"/>
+        <v>100</v>
+      </c>
+      <c r="P168">
+        <f t="shared" ca="1" si="53"/>
+        <v>34</v>
+      </c>
+      <c r="Q168">
+        <f t="shared" ca="1" si="53"/>
+        <v>97</v>
+      </c>
+      <c r="R168">
+        <f t="shared" ca="1" si="53"/>
+        <v>6</v>
+      </c>
+      <c r="S168">
+        <f t="shared" ca="1" si="53"/>
+        <v>59</v>
+      </c>
+      <c r="T168">
+        <v>50</v>
+      </c>
+      <c r="U168">
+        <v>40</v>
+      </c>
+      <c r="V168">
+        <v>60</v>
+      </c>
+      <c r="W168">
+        <v>60</v>
+      </c>
+      <c r="X168">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>234</v>
+      </c>
+      <c r="D169" t="s">
+        <v>37</v>
+      </c>
+      <c r="E169">
+        <v>23</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>38</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>4</v>
+      </c>
+      <c r="J169">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>96</v>
+      </c>
+      <c r="K169">
+        <f t="shared" ca="1" si="48"/>
+        <v>84</v>
+      </c>
+      <c r="L169">
+        <f t="shared" ca="1" si="49"/>
+        <v>74</v>
+      </c>
+      <c r="M169">
+        <f t="shared" ca="1" si="50"/>
+        <v>16</v>
+      </c>
+      <c r="N169">
+        <f t="shared" ca="1" si="51"/>
+        <v>87</v>
+      </c>
+      <c r="O169">
+        <f t="shared" ca="1" si="52"/>
+        <v>82</v>
+      </c>
+      <c r="P169">
+        <f t="shared" ca="1" si="53"/>
+        <v>9</v>
+      </c>
+      <c r="Q169">
+        <f t="shared" ca="1" si="53"/>
+        <v>99</v>
+      </c>
+      <c r="R169">
+        <f t="shared" ca="1" si="53"/>
+        <v>52</v>
+      </c>
+      <c r="S169">
+        <f t="shared" ca="1" si="53"/>
+        <v>27</v>
+      </c>
+      <c r="T169">
+        <v>50</v>
+      </c>
+      <c r="U169">
+        <v>40</v>
+      </c>
+      <c r="V169">
+        <v>60</v>
+      </c>
+      <c r="W169">
+        <v>60</v>
+      </c>
+      <c r="X169">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>235</v>
+      </c>
+      <c r="D170" t="s">
+        <v>74</v>
+      </c>
+      <c r="E170">
+        <v>32</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="s">
+        <v>38</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>4</v>
+      </c>
+      <c r="J170">
+        <f t="shared" ref="J170:S185" ca="1" si="54">RANDBETWEEN(60,100)</f>
+        <v>98</v>
+      </c>
+      <c r="K170">
+        <f t="shared" ca="1" si="48"/>
+        <v>67</v>
+      </c>
+      <c r="L170">
+        <f t="shared" ca="1" si="49"/>
+        <v>81</v>
+      </c>
+      <c r="M170">
+        <f t="shared" ca="1" si="50"/>
+        <v>92</v>
+      </c>
+      <c r="N170">
+        <f t="shared" ca="1" si="51"/>
+        <v>80</v>
+      </c>
+      <c r="O170">
+        <f t="shared" ca="1" si="52"/>
+        <v>91</v>
+      </c>
+      <c r="P170">
+        <f t="shared" ca="1" si="53"/>
+        <v>71</v>
+      </c>
+      <c r="Q170">
+        <f t="shared" ca="1" si="53"/>
+        <v>60</v>
+      </c>
+      <c r="R170">
+        <f t="shared" ca="1" si="53"/>
+        <v>78</v>
+      </c>
+      <c r="S170">
+        <f t="shared" ca="1" si="53"/>
+        <v>86</v>
+      </c>
+      <c r="T170">
+        <v>50</v>
+      </c>
+      <c r="U170">
+        <v>40</v>
+      </c>
+      <c r="V170">
+        <v>60</v>
+      </c>
+      <c r="W170">
+        <v>60</v>
+      </c>
+      <c r="X170">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>236</v>
+      </c>
+      <c r="D171" t="s">
+        <v>233</v>
+      </c>
+      <c r="E171">
+        <v>26</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" t="s">
+        <v>40</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>4</v>
+      </c>
+      <c r="J171">
+        <v>85</v>
+      </c>
+      <c r="K171">
+        <v>75</v>
+      </c>
+      <c r="L171">
+        <v>90</v>
+      </c>
+      <c r="M171">
+        <v>80</v>
+      </c>
+      <c r="N171">
+        <v>90</v>
+      </c>
+      <c r="O171">
+        <v>80</v>
+      </c>
+      <c r="P171">
+        <f t="shared" ca="1" si="53"/>
+        <v>69</v>
+      </c>
+      <c r="Q171">
+        <f t="shared" ca="1" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="R171">
+        <f t="shared" ca="1" si="53"/>
+        <v>39</v>
+      </c>
+      <c r="S171">
+        <f t="shared" ca="1" si="53"/>
+        <v>20</v>
+      </c>
+      <c r="T171">
+        <v>50</v>
+      </c>
+      <c r="U171">
+        <v>40</v>
+      </c>
+      <c r="V171">
+        <v>60</v>
+      </c>
+      <c r="W171">
+        <v>60</v>
+      </c>
+      <c r="X171">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>237</v>
+      </c>
+      <c r="D172" t="s">
+        <v>37</v>
+      </c>
+      <c r="E172">
+        <v>18</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>40</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>4</v>
+      </c>
+      <c r="J172">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>70</v>
+      </c>
+      <c r="K172">
+        <v>75</v>
+      </c>
+      <c r="L172">
+        <v>70</v>
+      </c>
+      <c r="M172">
+        <v>70</v>
+      </c>
+      <c r="N172">
+        <f t="shared" ca="1" si="54"/>
+        <v>71</v>
+      </c>
+      <c r="O172">
+        <f t="shared" ca="1" si="54"/>
+        <v>92</v>
+      </c>
+      <c r="P172">
+        <f t="shared" ca="1" si="54"/>
+        <v>84</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" ca="1" si="54"/>
+        <v>72</v>
+      </c>
+      <c r="R172">
+        <f t="shared" ca="1" si="54"/>
+        <v>92</v>
+      </c>
+      <c r="S172">
+        <f t="shared" ca="1" si="54"/>
+        <v>89</v>
+      </c>
+      <c r="T172">
+        <v>50</v>
+      </c>
+      <c r="U172">
+        <v>40</v>
+      </c>
+      <c r="V172">
+        <v>60</v>
+      </c>
+      <c r="W172">
+        <v>60</v>
+      </c>
+      <c r="X172">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
+        <v>238</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173">
+        <v>29</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>45</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>4</v>
+      </c>
+      <c r="J173">
+        <f t="shared" ca="1" si="54"/>
+        <v>89</v>
+      </c>
+      <c r="K173">
+        <f t="shared" ca="1" si="54"/>
+        <v>76</v>
+      </c>
+      <c r="L173">
+        <f t="shared" ca="1" si="54"/>
+        <v>96</v>
+      </c>
+      <c r="M173">
+        <f t="shared" ca="1" si="54"/>
+        <v>85</v>
+      </c>
+      <c r="N173">
+        <v>90</v>
+      </c>
+      <c r="O173">
+        <f t="shared" ca="1" si="54"/>
+        <v>98</v>
+      </c>
+      <c r="P173">
+        <f t="shared" ca="1" si="54"/>
+        <v>73</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" ca="1" si="54"/>
+        <v>66</v>
+      </c>
+      <c r="R173">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>21</v>
+      </c>
+      <c r="S173">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>57</v>
+      </c>
+      <c r="T173">
+        <v>50</v>
+      </c>
+      <c r="U173">
+        <v>40</v>
+      </c>
+      <c r="V173">
+        <v>60</v>
+      </c>
+      <c r="W173">
+        <v>60</v>
+      </c>
+      <c r="X173">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>239</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174">
+        <v>27</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>47</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>4</v>
+      </c>
+      <c r="J174">
+        <f ca="1">RANDBETWEEN(70,100)</f>
+        <v>93</v>
+      </c>
+      <c r="K174">
+        <f ca="1">RANDBETWEEN(70,100)</f>
+        <v>95</v>
+      </c>
+      <c r="L174">
+        <f ca="1">RANDBETWEEN(30,100)</f>
+        <v>50</v>
+      </c>
+      <c r="M174">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>94</v>
+      </c>
+      <c r="N174">
+        <f t="shared" ca="1" si="54"/>
+        <v>62</v>
+      </c>
+      <c r="O174">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>55</v>
+      </c>
+      <c r="P174">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <f t="shared" ref="R174:S189" ca="1" si="55">RANDBETWEEN(0,100)</f>
+        <v>67</v>
+      </c>
+      <c r="S174">
+        <f t="shared" ca="1" si="55"/>
+        <v>97</v>
+      </c>
+      <c r="T174">
+        <v>50</v>
+      </c>
+      <c r="U174">
+        <v>40</v>
+      </c>
+      <c r="V174">
+        <v>60</v>
+      </c>
+      <c r="W174">
+        <v>60</v>
+      </c>
+      <c r="X174">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7</v>
+      </c>
+      <c r="C175" t="s">
+        <v>240</v>
+      </c>
+      <c r="D175" t="s">
+        <v>37</v>
+      </c>
+      <c r="E175">
+        <v>23</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>47</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>4</v>
+      </c>
+      <c r="J175">
+        <f t="shared" ref="J175:K185" ca="1" si="56">RANDBETWEEN(70,100)</f>
+        <v>99</v>
+      </c>
+      <c r="K175">
+        <f t="shared" ca="1" si="56"/>
+        <v>95</v>
+      </c>
+      <c r="L175">
+        <f t="shared" ref="L175:L185" ca="1" si="57">RANDBETWEEN(30,100)</f>
+        <v>56</v>
+      </c>
+      <c r="M175">
+        <f t="shared" ref="M175:M185" ca="1" si="58">RANDBETWEEN(60,100)</f>
+        <v>82</v>
+      </c>
+      <c r="N175">
+        <f t="shared" ca="1" si="54"/>
+        <v>74</v>
+      </c>
+      <c r="O175">
+        <f t="shared" ref="O175:O185" ca="1" si="59">RANDBETWEEN(40,100)</f>
+        <v>99</v>
+      </c>
+      <c r="P175">
+        <f t="shared" ref="P175:Q185" ca="1" si="60">RANDBETWEEN(0,100)</f>
+        <v>74</v>
+      </c>
+      <c r="Q175">
+        <f t="shared" ca="1" si="60"/>
+        <v>84</v>
+      </c>
+      <c r="R175">
+        <f t="shared" ca="1" si="55"/>
+        <v>95</v>
+      </c>
+      <c r="S175">
+        <f t="shared" ca="1" si="55"/>
+        <v>35</v>
+      </c>
+      <c r="T175">
+        <v>50</v>
+      </c>
+      <c r="U175">
+        <v>40</v>
+      </c>
+      <c r="V175">
+        <v>60</v>
+      </c>
+      <c r="W175">
+        <v>60</v>
+      </c>
+      <c r="X175">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>241</v>
+      </c>
+      <c r="D176" t="s">
+        <v>51</v>
+      </c>
+      <c r="E176">
+        <v>23</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>47</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>4</v>
+      </c>
+      <c r="J176">
+        <f t="shared" ca="1" si="56"/>
+        <v>76</v>
+      </c>
+      <c r="K176">
+        <f t="shared" ca="1" si="56"/>
+        <v>70</v>
+      </c>
+      <c r="L176">
+        <f t="shared" ca="1" si="57"/>
+        <v>74</v>
+      </c>
+      <c r="M176">
+        <f t="shared" ca="1" si="58"/>
+        <v>94</v>
+      </c>
+      <c r="N176">
+        <f t="shared" ca="1" si="54"/>
+        <v>64</v>
+      </c>
+      <c r="O176">
+        <f t="shared" ca="1" si="59"/>
+        <v>69</v>
+      </c>
+      <c r="P176">
+        <f t="shared" ca="1" si="60"/>
+        <v>100</v>
+      </c>
+      <c r="Q176">
+        <f t="shared" ca="1" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="R176">
+        <f t="shared" ca="1" si="55"/>
+        <v>26</v>
+      </c>
+      <c r="S176">
+        <f t="shared" ca="1" si="55"/>
+        <v>89</v>
+      </c>
+      <c r="T176">
+        <v>50</v>
+      </c>
+      <c r="U176">
+        <v>40</v>
+      </c>
+      <c r="V176">
+        <v>60</v>
+      </c>
+      <c r="W176">
+        <v>60</v>
+      </c>
+      <c r="X176">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>242</v>
+      </c>
+      <c r="D177" t="s">
+        <v>149</v>
+      </c>
+      <c r="E177">
+        <v>20</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177" t="s">
+        <v>47</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>4</v>
+      </c>
+      <c r="J177">
+        <f t="shared" ca="1" si="56"/>
+        <v>93</v>
+      </c>
+      <c r="K177">
+        <f t="shared" ca="1" si="56"/>
+        <v>85</v>
+      </c>
+      <c r="L177">
+        <f t="shared" ca="1" si="57"/>
+        <v>58</v>
+      </c>
+      <c r="M177">
+        <f t="shared" ca="1" si="58"/>
+        <v>83</v>
+      </c>
+      <c r="N177">
+        <f t="shared" ca="1" si="54"/>
+        <v>97</v>
+      </c>
+      <c r="O177">
+        <f t="shared" ca="1" si="59"/>
+        <v>78</v>
+      </c>
+      <c r="P177">
+        <f t="shared" ca="1" si="60"/>
+        <v>93</v>
+      </c>
+      <c r="Q177">
+        <f t="shared" ca="1" si="60"/>
+        <v>58</v>
+      </c>
+      <c r="R177">
+        <f t="shared" ca="1" si="55"/>
+        <v>68</v>
+      </c>
+      <c r="S177">
+        <f t="shared" ca="1" si="55"/>
+        <v>26</v>
+      </c>
+      <c r="T177">
+        <v>50</v>
+      </c>
+      <c r="U177">
+        <v>40</v>
+      </c>
+      <c r="V177">
+        <v>60</v>
+      </c>
+      <c r="W177">
+        <v>60</v>
+      </c>
+      <c r="X177">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>243</v>
+      </c>
+      <c r="D178" t="s">
+        <v>206</v>
+      </c>
+      <c r="E178">
+        <v>26</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>49</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>4</v>
+      </c>
+      <c r="J178">
+        <f t="shared" ca="1" si="56"/>
+        <v>89</v>
+      </c>
+      <c r="K178">
+        <f t="shared" ca="1" si="56"/>
+        <v>88</v>
+      </c>
+      <c r="L178">
+        <f t="shared" ca="1" si="57"/>
+        <v>79</v>
+      </c>
+      <c r="M178">
+        <f t="shared" ca="1" si="58"/>
+        <v>72</v>
+      </c>
+      <c r="N178">
+        <f t="shared" ca="1" si="54"/>
+        <v>85</v>
+      </c>
+      <c r="O178">
+        <f t="shared" ca="1" si="59"/>
+        <v>92</v>
+      </c>
+      <c r="P178">
+        <f t="shared" ca="1" si="60"/>
+        <v>51</v>
+      </c>
+      <c r="Q178">
+        <f t="shared" ca="1" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <f t="shared" ca="1" si="55"/>
+        <v>65</v>
+      </c>
+      <c r="S178">
+        <f t="shared" ca="1" si="55"/>
+        <v>13</v>
+      </c>
+      <c r="T178">
+        <v>50</v>
+      </c>
+      <c r="U178">
+        <v>40</v>
+      </c>
+      <c r="V178">
+        <v>60</v>
+      </c>
+      <c r="W178">
+        <v>60</v>
+      </c>
+      <c r="X178">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>244</v>
+      </c>
+      <c r="D179" t="s">
+        <v>51</v>
+      </c>
+      <c r="E179">
+        <v>35</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179" t="s">
+        <v>55</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>4</v>
+      </c>
+      <c r="J179">
+        <f t="shared" ca="1" si="56"/>
+        <v>92</v>
+      </c>
+      <c r="K179">
+        <f t="shared" ca="1" si="56"/>
+        <v>94</v>
+      </c>
+      <c r="L179">
+        <f t="shared" ca="1" si="57"/>
+        <v>39</v>
+      </c>
+      <c r="M179">
+        <f t="shared" ca="1" si="58"/>
+        <v>95</v>
+      </c>
+      <c r="N179">
+        <f t="shared" ca="1" si="54"/>
+        <v>62</v>
+      </c>
+      <c r="O179">
+        <f t="shared" ca="1" si="59"/>
+        <v>45</v>
+      </c>
+      <c r="P179">
+        <f t="shared" ca="1" si="60"/>
+        <v>52</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" ca="1" si="60"/>
+        <v>32</v>
+      </c>
+      <c r="R179">
+        <f t="shared" ca="1" si="55"/>
+        <v>38</v>
+      </c>
+      <c r="S179">
+        <f t="shared" ca="1" si="55"/>
+        <v>45</v>
+      </c>
+      <c r="T179">
+        <v>50</v>
+      </c>
+      <c r="U179">
+        <v>40</v>
+      </c>
+      <c r="V179">
+        <v>60</v>
+      </c>
+      <c r="W179">
+        <v>60</v>
+      </c>
+      <c r="X179">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>245</v>
+      </c>
+      <c r="D180" t="s">
+        <v>51</v>
+      </c>
+      <c r="E180">
+        <v>22</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>55</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>4</v>
+      </c>
+      <c r="J180">
+        <f t="shared" ca="1" si="56"/>
+        <v>95</v>
+      </c>
+      <c r="K180">
+        <f t="shared" ca="1" si="56"/>
+        <v>72</v>
+      </c>
+      <c r="L180">
+        <f t="shared" ca="1" si="57"/>
+        <v>86</v>
+      </c>
+      <c r="M180">
+        <f t="shared" ca="1" si="58"/>
+        <v>65</v>
+      </c>
+      <c r="N180">
+        <f t="shared" ca="1" si="54"/>
+        <v>90</v>
+      </c>
+      <c r="O180">
+        <f t="shared" ca="1" si="59"/>
+        <v>64</v>
+      </c>
+      <c r="P180">
+        <f t="shared" ca="1" si="60"/>
+        <v>4</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" ca="1" si="60"/>
+        <v>49</v>
+      </c>
+      <c r="R180">
+        <f t="shared" ca="1" si="55"/>
+        <v>48</v>
+      </c>
+      <c r="S180">
+        <f t="shared" ca="1" si="55"/>
+        <v>71</v>
+      </c>
+      <c r="T180">
+        <v>50</v>
+      </c>
+      <c r="U180">
+        <v>40</v>
+      </c>
+      <c r="V180">
+        <v>60</v>
+      </c>
+      <c r="W180">
+        <v>60</v>
+      </c>
+      <c r="X180">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>246</v>
+      </c>
+      <c r="D181" t="s">
+        <v>101</v>
+      </c>
+      <c r="E181">
+        <v>34</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181" t="s">
+        <v>59</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>4</v>
+      </c>
+      <c r="J181">
+        <f t="shared" ca="1" si="56"/>
+        <v>81</v>
+      </c>
+      <c r="K181">
+        <f t="shared" ca="1" si="56"/>
+        <v>77</v>
+      </c>
+      <c r="L181">
+        <f t="shared" ca="1" si="57"/>
+        <v>38</v>
+      </c>
+      <c r="M181">
+        <f t="shared" ca="1" si="58"/>
+        <v>99</v>
+      </c>
+      <c r="N181">
+        <f t="shared" ca="1" si="54"/>
+        <v>81</v>
+      </c>
+      <c r="O181">
+        <f t="shared" ca="1" si="59"/>
+        <v>41</v>
+      </c>
+      <c r="P181">
+        <f t="shared" ca="1" si="60"/>
+        <v>87</v>
+      </c>
+      <c r="Q181">
+        <f t="shared" ca="1" si="60"/>
+        <v>39</v>
+      </c>
+      <c r="R181">
+        <f t="shared" ca="1" si="55"/>
+        <v>38</v>
+      </c>
+      <c r="S181">
+        <f t="shared" ca="1" si="55"/>
+        <v>60</v>
+      </c>
+      <c r="T181">
+        <v>50</v>
+      </c>
+      <c r="U181">
+        <v>40</v>
+      </c>
+      <c r="V181">
+        <v>60</v>
+      </c>
+      <c r="W181">
+        <v>60</v>
+      </c>
+      <c r="X181">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>247</v>
+      </c>
+      <c r="D182" t="s">
+        <v>37</v>
+      </c>
+      <c r="E182">
+        <v>22</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182" t="s">
+        <v>59</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+      <c r="J182">
+        <f t="shared" ca="1" si="56"/>
+        <v>91</v>
+      </c>
+      <c r="K182">
+        <f t="shared" ca="1" si="56"/>
+        <v>85</v>
+      </c>
+      <c r="L182">
+        <f t="shared" ca="1" si="57"/>
+        <v>54</v>
+      </c>
+      <c r="M182">
+        <f t="shared" ca="1" si="58"/>
+        <v>77</v>
+      </c>
+      <c r="N182">
+        <f t="shared" ca="1" si="54"/>
+        <v>72</v>
+      </c>
+      <c r="O182">
+        <f t="shared" ca="1" si="59"/>
+        <v>74</v>
+      </c>
+      <c r="P182">
+        <f t="shared" ca="1" si="60"/>
+        <v>48</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" ca="1" si="60"/>
+        <v>23</v>
+      </c>
+      <c r="R182">
+        <f t="shared" ca="1" si="55"/>
+        <v>16</v>
+      </c>
+      <c r="S182">
+        <f t="shared" ca="1" si="55"/>
+        <v>49</v>
+      </c>
+      <c r="T182">
+        <v>50</v>
+      </c>
+      <c r="U182">
+        <v>40</v>
+      </c>
+      <c r="V182">
+        <v>60</v>
+      </c>
+      <c r="W182">
+        <v>60</v>
+      </c>
+      <c r="X182">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>248</v>
+      </c>
+      <c r="D183" t="s">
+        <v>249</v>
+      </c>
+      <c r="E183">
+        <v>29</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183" t="s">
+        <v>64</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>4</v>
+      </c>
+      <c r="J183">
+        <v>90</v>
+      </c>
+      <c r="K183">
+        <v>70</v>
+      </c>
+      <c r="L183">
+        <f t="shared" ca="1" si="57"/>
+        <v>39</v>
+      </c>
+      <c r="M183">
+        <v>95</v>
+      </c>
+      <c r="N183">
+        <v>75</v>
+      </c>
+      <c r="O183">
+        <v>75</v>
+      </c>
+      <c r="P183">
+        <f t="shared" ca="1" si="60"/>
+        <v>47</v>
+      </c>
+      <c r="Q183">
+        <f t="shared" ca="1" si="60"/>
+        <v>44</v>
+      </c>
+      <c r="R183">
+        <f t="shared" ca="1" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="S183">
+        <f t="shared" ca="1" si="55"/>
+        <v>41</v>
+      </c>
+      <c r="T183">
+        <v>50</v>
+      </c>
+      <c r="U183">
+        <v>40</v>
+      </c>
+      <c r="V183">
+        <v>60</v>
+      </c>
+      <c r="W183">
+        <v>60</v>
+      </c>
+      <c r="X183">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>250</v>
+      </c>
+      <c r="D184" t="s">
+        <v>37</v>
+      </c>
+      <c r="E184">
+        <v>28</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>64</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>4</v>
+      </c>
+      <c r="J184">
+        <v>80</v>
+      </c>
+      <c r="K184">
+        <f t="shared" ca="1" si="56"/>
+        <v>85</v>
+      </c>
+      <c r="L184">
+        <f t="shared" ca="1" si="57"/>
+        <v>71</v>
+      </c>
+      <c r="M184">
+        <v>90</v>
+      </c>
+      <c r="N184">
+        <v>80</v>
+      </c>
+      <c r="O184">
+        <v>80</v>
+      </c>
+      <c r="P184">
+        <f t="shared" ca="1" si="60"/>
+        <v>59</v>
+      </c>
+      <c r="Q184">
+        <f t="shared" ca="1" si="60"/>
+        <v>89</v>
+      </c>
+      <c r="R184">
+        <f t="shared" ca="1" si="55"/>
+        <v>96</v>
+      </c>
+      <c r="S184">
+        <f t="shared" ca="1" si="55"/>
+        <v>59</v>
+      </c>
+      <c r="T184">
+        <v>50</v>
+      </c>
+      <c r="U184">
+        <v>40</v>
+      </c>
+      <c r="V184">
+        <v>60</v>
+      </c>
+      <c r="W184">
+        <v>60</v>
+      </c>
+      <c r="X184">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>251</v>
+      </c>
+      <c r="D185" t="s">
+        <v>37</v>
+      </c>
+      <c r="E185">
+        <v>17</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>64</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>4</v>
+      </c>
+      <c r="J185">
+        <f t="shared" ca="1" si="56"/>
+        <v>80</v>
+      </c>
+      <c r="K185">
+        <f t="shared" ca="1" si="56"/>
+        <v>91</v>
+      </c>
+      <c r="L185">
+        <f t="shared" ca="1" si="57"/>
+        <v>77</v>
+      </c>
+      <c r="M185">
+        <f t="shared" ca="1" si="58"/>
+        <v>75</v>
+      </c>
+      <c r="N185">
+        <f t="shared" ca="1" si="54"/>
+        <v>66</v>
+      </c>
+      <c r="O185">
+        <f t="shared" ca="1" si="59"/>
+        <v>44</v>
+      </c>
+      <c r="P185">
+        <f t="shared" ca="1" si="60"/>
+        <v>74</v>
+      </c>
+      <c r="Q185">
+        <f t="shared" ca="1" si="60"/>
+        <v>50</v>
+      </c>
+      <c r="R185">
+        <f t="shared" ca="1" si="55"/>
+        <v>63</v>
+      </c>
+      <c r="S185">
+        <f t="shared" ca="1" si="55"/>
+        <v>51</v>
+      </c>
+      <c r="T185">
+        <v>50</v>
+      </c>
+      <c r="U185">
+        <v>40</v>
+      </c>
+      <c r="V185">
+        <v>60</v>
+      </c>
+      <c r="W185">
+        <v>60</v>
+      </c>
+      <c r="X185">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>252</v>
+      </c>
+      <c r="D186" t="s">
+        <v>253</v>
+      </c>
+      <c r="E186">
+        <v>31</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>25</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>4</v>
+      </c>
+      <c r="J186">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>82</v>
+      </c>
+      <c r="K186">
+        <f t="shared" ref="K186:N187" ca="1" si="61">RANDBETWEEN(0,100)</f>
+        <v>3</v>
+      </c>
+      <c r="L186">
+        <f t="shared" ca="1" si="61"/>
+        <v>63</v>
+      </c>
+      <c r="M186">
+        <f t="shared" ca="1" si="61"/>
+        <v>53</v>
+      </c>
+      <c r="N186">
+        <f t="shared" ca="1" si="61"/>
+        <v>64</v>
+      </c>
+      <c r="O186">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>40</v>
+      </c>
+      <c r="P186">
+        <v>95</v>
+      </c>
+      <c r="Q186">
+        <v>95</v>
+      </c>
+      <c r="R186">
+        <f t="shared" ca="1" si="55"/>
+        <v>32</v>
+      </c>
+      <c r="S186">
+        <f t="shared" ca="1" si="55"/>
+        <v>30</v>
+      </c>
+      <c r="T186">
+        <v>50</v>
+      </c>
+      <c r="U186">
+        <v>40</v>
+      </c>
+      <c r="V186">
+        <v>60</v>
+      </c>
+      <c r="W186">
+        <v>60</v>
+      </c>
+      <c r="X186">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>254</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187">
+        <v>26</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>25</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>4</v>
+      </c>
+      <c r="J187">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>56</v>
+      </c>
+      <c r="K187">
+        <f t="shared" ca="1" si="61"/>
+        <v>72</v>
+      </c>
+      <c r="L187">
+        <f t="shared" ca="1" si="61"/>
+        <v>8</v>
+      </c>
+      <c r="M187">
+        <f t="shared" ca="1" si="61"/>
+        <v>10</v>
+      </c>
+      <c r="N187">
+        <f t="shared" ca="1" si="61"/>
+        <v>70</v>
+      </c>
+      <c r="O187">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>72</v>
+      </c>
+      <c r="P187">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>98</v>
+      </c>
+      <c r="Q187">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>91</v>
+      </c>
+      <c r="R187">
+        <f t="shared" ca="1" si="55"/>
+        <v>32</v>
+      </c>
+      <c r="S187">
+        <f t="shared" ca="1" si="55"/>
+        <v>20</v>
+      </c>
+      <c r="T187">
+        <v>50</v>
+      </c>
+      <c r="U187">
+        <v>40</v>
+      </c>
+      <c r="V187">
+        <v>60</v>
+      </c>
+      <c r="W187">
+        <v>60</v>
+      </c>
+      <c r="X187">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>255</v>
+      </c>
+      <c r="D188" t="s">
+        <v>51</v>
+      </c>
+      <c r="E188">
+        <v>25</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>29</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>4</v>
+      </c>
+      <c r="J188">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>56</v>
+      </c>
+      <c r="K188">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>98</v>
+      </c>
+      <c r="L188">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>82</v>
+      </c>
+      <c r="M188">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>95</v>
+      </c>
+      <c r="N188">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>78</v>
+      </c>
+      <c r="O188">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>85</v>
+      </c>
+      <c r="P188">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>88</v>
+      </c>
+      <c r="Q188">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>94</v>
+      </c>
+      <c r="R188">
+        <f t="shared" ca="1" si="55"/>
+        <v>59</v>
+      </c>
+      <c r="S188">
+        <f t="shared" ca="1" si="55"/>
+        <v>63</v>
+      </c>
+      <c r="T188">
+        <v>50</v>
+      </c>
+      <c r="U188">
+        <v>40</v>
+      </c>
+      <c r="V188">
+        <v>60</v>
+      </c>
+      <c r="W188">
+        <v>60</v>
+      </c>
+      <c r="X188">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>256</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189">
+        <v>32</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>29</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>4</v>
+      </c>
+      <c r="J189">
+        <f t="shared" ref="J189:K193" ca="1" si="62">RANDBETWEEN(40,100)</f>
+        <v>69</v>
+      </c>
+      <c r="K189">
+        <f t="shared" ca="1" si="62"/>
+        <v>60</v>
+      </c>
+      <c r="L189">
+        <f t="shared" ref="L189:L193" ca="1" si="63">RANDBETWEEN(60,100)</f>
+        <v>91</v>
+      </c>
+      <c r="M189">
+        <f t="shared" ref="M189:M193" ca="1" si="64">RANDBETWEEN(0,100)</f>
+        <v>48</v>
+      </c>
+      <c r="N189">
+        <f t="shared" ref="N189:N193" ca="1" si="65">RANDBETWEEN(40,100)</f>
+        <v>43</v>
+      </c>
+      <c r="O189">
+        <f t="shared" ref="O189:O193" ca="1" si="66">RANDBETWEEN(60,100)</f>
+        <v>76</v>
+      </c>
+      <c r="P189">
+        <f t="shared" ref="P189:S204" ca="1" si="67">RANDBETWEEN(0,100)</f>
+        <v>46</v>
+      </c>
+      <c r="Q189">
+        <f t="shared" ca="1" si="67"/>
+        <v>11</v>
+      </c>
+      <c r="R189">
+        <f t="shared" ca="1" si="55"/>
+        <v>18</v>
+      </c>
+      <c r="S189">
+        <f t="shared" ca="1" si="55"/>
+        <v>33</v>
+      </c>
+      <c r="T189">
+        <v>50</v>
+      </c>
+      <c r="U189">
+        <v>40</v>
+      </c>
+      <c r="V189">
+        <v>60</v>
+      </c>
+      <c r="W189">
+        <v>60</v>
+      </c>
+      <c r="X189">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>257</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190">
+        <v>28</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>29</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>4</v>
+      </c>
+      <c r="J190">
+        <f t="shared" ca="1" si="62"/>
+        <v>80</v>
+      </c>
+      <c r="K190">
+        <f t="shared" ca="1" si="62"/>
+        <v>83</v>
+      </c>
+      <c r="L190">
+        <f t="shared" ca="1" si="63"/>
+        <v>83</v>
+      </c>
+      <c r="M190">
+        <f t="shared" ca="1" si="64"/>
+        <v>66</v>
+      </c>
+      <c r="N190">
+        <f t="shared" ca="1" si="65"/>
+        <v>98</v>
+      </c>
+      <c r="O190">
+        <f t="shared" ca="1" si="66"/>
+        <v>69</v>
+      </c>
+      <c r="P190">
+        <f t="shared" ca="1" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="Q190">
+        <f t="shared" ca="1" si="67"/>
+        <v>29</v>
+      </c>
+      <c r="R190">
+        <f t="shared" ca="1" si="67"/>
+        <v>56</v>
+      </c>
+      <c r="S190">
+        <f t="shared" ca="1" si="67"/>
+        <v>63</v>
+      </c>
+      <c r="T190">
+        <v>50</v>
+      </c>
+      <c r="U190">
+        <v>40</v>
+      </c>
+      <c r="V190">
+        <v>60</v>
+      </c>
+      <c r="W190">
+        <v>60</v>
+      </c>
+      <c r="X190">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>258</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191">
+        <v>21</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
+        <v>29</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>4</v>
+      </c>
+      <c r="J191">
+        <f t="shared" ca="1" si="62"/>
+        <v>51</v>
+      </c>
+      <c r="K191">
+        <f t="shared" ca="1" si="62"/>
+        <v>100</v>
+      </c>
+      <c r="L191">
+        <f t="shared" ca="1" si="63"/>
+        <v>67</v>
+      </c>
+      <c r="M191">
+        <f t="shared" ca="1" si="64"/>
+        <v>32</v>
+      </c>
+      <c r="N191">
+        <f t="shared" ca="1" si="65"/>
+        <v>86</v>
+      </c>
+      <c r="O191">
+        <f t="shared" ca="1" si="66"/>
+        <v>73</v>
+      </c>
+      <c r="P191">
+        <f t="shared" ca="1" si="67"/>
+        <v>65</v>
+      </c>
+      <c r="Q191">
+        <f t="shared" ca="1" si="67"/>
+        <v>91</v>
+      </c>
+      <c r="R191">
+        <f t="shared" ca="1" si="67"/>
+        <v>84</v>
+      </c>
+      <c r="S191">
+        <f t="shared" ca="1" si="67"/>
+        <v>45</v>
+      </c>
+      <c r="T191">
+        <v>50</v>
+      </c>
+      <c r="U191">
+        <v>40</v>
+      </c>
+      <c r="V191">
+        <v>60</v>
+      </c>
+      <c r="W191">
+        <v>60</v>
+      </c>
+      <c r="X191">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>259</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192">
+        <v>26</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>38</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>4</v>
+      </c>
+      <c r="J192">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>76</v>
+      </c>
+      <c r="K192">
+        <f t="shared" ca="1" si="62"/>
+        <v>80</v>
+      </c>
+      <c r="L192">
+        <f t="shared" ca="1" si="63"/>
+        <v>73</v>
+      </c>
+      <c r="M192">
+        <f t="shared" ca="1" si="64"/>
+        <v>68</v>
+      </c>
+      <c r="N192">
+        <f t="shared" ca="1" si="65"/>
+        <v>42</v>
+      </c>
+      <c r="O192">
+        <f t="shared" ca="1" si="66"/>
+        <v>97</v>
+      </c>
+      <c r="P192">
+        <f t="shared" ca="1" si="67"/>
+        <v>50</v>
+      </c>
+      <c r="Q192">
+        <f t="shared" ca="1" si="67"/>
+        <v>62</v>
+      </c>
+      <c r="R192">
+        <f t="shared" ca="1" si="67"/>
+        <v>53</v>
+      </c>
+      <c r="S192">
+        <f t="shared" ca="1" si="67"/>
+        <v>37</v>
+      </c>
+      <c r="T192">
+        <v>50</v>
+      </c>
+      <c r="U192">
+        <v>40</v>
+      </c>
+      <c r="V192">
+        <v>60</v>
+      </c>
+      <c r="W192">
+        <v>60</v>
+      </c>
+      <c r="X192">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>260</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193">
+        <v>22</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193" t="s">
+        <v>38</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>4</v>
+      </c>
+      <c r="J193">
+        <f t="shared" ref="J193:Q208" ca="1" si="68">RANDBETWEEN(60,100)</f>
+        <v>70</v>
+      </c>
+      <c r="K193">
+        <f t="shared" ca="1" si="62"/>
+        <v>80</v>
+      </c>
+      <c r="L193">
+        <f t="shared" ca="1" si="63"/>
+        <v>73</v>
+      </c>
+      <c r="M193">
+        <f t="shared" ca="1" si="64"/>
+        <v>29</v>
+      </c>
+      <c r="N193">
+        <f t="shared" ca="1" si="65"/>
+        <v>76</v>
+      </c>
+      <c r="O193">
+        <f t="shared" ca="1" si="66"/>
+        <v>94</v>
+      </c>
+      <c r="P193">
+        <f t="shared" ca="1" si="67"/>
+        <v>47</v>
+      </c>
+      <c r="Q193">
+        <f t="shared" ca="1" si="67"/>
+        <v>68</v>
+      </c>
+      <c r="R193">
+        <f t="shared" ca="1" si="67"/>
+        <v>80</v>
+      </c>
+      <c r="S193">
+        <f t="shared" ca="1" si="67"/>
+        <v>96</v>
+      </c>
+      <c r="T193">
+        <v>50</v>
+      </c>
+      <c r="U193">
+        <v>40</v>
+      </c>
+      <c r="V193">
+        <v>60</v>
+      </c>
+      <c r="W193">
+        <v>60</v>
+      </c>
+      <c r="X193">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>261</v>
+      </c>
+      <c r="D194" t="s">
+        <v>74</v>
+      </c>
+      <c r="E194">
+        <v>30</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>40</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>4</v>
+      </c>
+      <c r="J194">
+        <v>85</v>
+      </c>
+      <c r="K194">
+        <v>75</v>
+      </c>
+      <c r="L194">
+        <v>90</v>
+      </c>
+      <c r="M194">
+        <v>80</v>
+      </c>
+      <c r="N194">
+        <v>90</v>
+      </c>
+      <c r="O194">
+        <v>80</v>
+      </c>
+      <c r="P194">
+        <f t="shared" ca="1" si="67"/>
+        <v>4</v>
+      </c>
+      <c r="Q194">
+        <f t="shared" ca="1" si="67"/>
+        <v>29</v>
+      </c>
+      <c r="R194">
+        <f t="shared" ca="1" si="67"/>
+        <v>33</v>
+      </c>
+      <c r="S194">
+        <f t="shared" ca="1" si="67"/>
+        <v>57</v>
+      </c>
+      <c r="T194">
+        <v>50</v>
+      </c>
+      <c r="U194">
+        <v>40</v>
+      </c>
+      <c r="V194">
+        <v>60</v>
+      </c>
+      <c r="W194">
+        <v>60</v>
+      </c>
+      <c r="X194">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>262</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195">
+        <v>21</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>40</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+      <c r="J195">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>74</v>
+      </c>
+      <c r="K195">
+        <v>75</v>
+      </c>
+      <c r="L195">
+        <v>70</v>
+      </c>
+      <c r="M195">
+        <v>70</v>
+      </c>
+      <c r="N195">
+        <f t="shared" ca="1" si="68"/>
+        <v>91</v>
+      </c>
+      <c r="O195">
+        <f t="shared" ca="1" si="68"/>
+        <v>76</v>
+      </c>
+      <c r="P195">
+        <f t="shared" ca="1" si="68"/>
+        <v>68</v>
+      </c>
+      <c r="Q195">
+        <f t="shared" ca="1" si="68"/>
+        <v>72</v>
+      </c>
+      <c r="R195">
+        <f t="shared" ca="1" si="67"/>
+        <v>97</v>
+      </c>
+      <c r="S195">
+        <f t="shared" ca="1" si="67"/>
+        <v>3</v>
+      </c>
+      <c r="T195">
+        <v>50</v>
+      </c>
+      <c r="U195">
+        <v>40</v>
+      </c>
+      <c r="V195">
+        <v>60</v>
+      </c>
+      <c r="W195">
+        <v>60</v>
+      </c>
+      <c r="X195">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>263</v>
+      </c>
+      <c r="D196" t="s">
+        <v>74</v>
+      </c>
+      <c r="E196">
+        <v>26</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>45</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>4</v>
+      </c>
+      <c r="J196">
+        <f t="shared" ca="1" si="68"/>
+        <v>66</v>
+      </c>
+      <c r="K196">
+        <f t="shared" ca="1" si="68"/>
+        <v>69</v>
+      </c>
+      <c r="L196">
+        <f t="shared" ca="1" si="68"/>
+        <v>92</v>
+      </c>
+      <c r="M196">
+        <f t="shared" ca="1" si="68"/>
+        <v>92</v>
+      </c>
+      <c r="N196">
+        <v>90</v>
+      </c>
+      <c r="O196">
+        <f t="shared" ca="1" si="68"/>
+        <v>77</v>
+      </c>
+      <c r="P196">
+        <f t="shared" ca="1" si="68"/>
+        <v>93</v>
+      </c>
+      <c r="Q196">
+        <f t="shared" ca="1" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="R196">
+        <f t="shared" ca="1" si="67"/>
+        <v>44</v>
+      </c>
+      <c r="S196">
+        <f t="shared" ca="1" si="67"/>
+        <v>16</v>
+      </c>
+      <c r="T196">
+        <v>50</v>
+      </c>
+      <c r="U196">
+        <v>40</v>
+      </c>
+      <c r="V196">
+        <v>60</v>
+      </c>
+      <c r="W196">
+        <v>60</v>
+      </c>
+      <c r="X196">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>264</v>
+      </c>
+      <c r="D197" t="s">
+        <v>37</v>
+      </c>
+      <c r="E197">
+        <v>28</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>47</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>4</v>
+      </c>
+      <c r="J197">
+        <f ca="1">RANDBETWEEN(70,100)</f>
+        <v>77</v>
+      </c>
+      <c r="K197">
+        <f ca="1">RANDBETWEEN(70,100)</f>
+        <v>77</v>
+      </c>
+      <c r="L197">
+        <f ca="1">RANDBETWEEN(30,100)</f>
+        <v>57</v>
+      </c>
+      <c r="M197">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>64</v>
+      </c>
+      <c r="N197">
+        <f t="shared" ca="1" si="68"/>
+        <v>88</v>
+      </c>
+      <c r="O197">
+        <f ca="1">RANDBETWEEN(40,100)</f>
+        <v>42</v>
+      </c>
+      <c r="P197">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>100</v>
+      </c>
+      <c r="Q197">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>89</v>
+      </c>
+      <c r="R197">
+        <f t="shared" ca="1" si="67"/>
+        <v>89</v>
+      </c>
+      <c r="S197">
+        <f t="shared" ca="1" si="67"/>
+        <v>76</v>
+      </c>
+      <c r="T197">
+        <v>50</v>
+      </c>
+      <c r="U197">
+        <v>40</v>
+      </c>
+      <c r="V197">
+        <v>60</v>
+      </c>
+      <c r="W197">
+        <v>60</v>
+      </c>
+      <c r="X197">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>265</v>
+      </c>
+      <c r="D198" t="s">
+        <v>87</v>
+      </c>
+      <c r="E198">
+        <v>32</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198" t="s">
+        <v>47</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>4</v>
+      </c>
+      <c r="J198">
+        <f t="shared" ref="J198:K208" ca="1" si="69">RANDBETWEEN(70,100)</f>
+        <v>78</v>
+      </c>
+      <c r="K198">
+        <f t="shared" ca="1" si="69"/>
+        <v>84</v>
+      </c>
+      <c r="L198">
+        <f t="shared" ref="L198:L208" ca="1" si="70">RANDBETWEEN(30,100)</f>
+        <v>41</v>
+      </c>
+      <c r="M198">
+        <f t="shared" ref="M198:M208" ca="1" si="71">RANDBETWEEN(60,100)</f>
+        <v>71</v>
+      </c>
+      <c r="N198">
+        <f t="shared" ca="1" si="68"/>
+        <v>81</v>
+      </c>
+      <c r="O198">
+        <f t="shared" ref="O198:O208" ca="1" si="72">RANDBETWEEN(40,100)</f>
+        <v>72</v>
+      </c>
+      <c r="P198">
+        <f t="shared" ref="P198:S208" ca="1" si="73">RANDBETWEEN(0,100)</f>
+        <v>86</v>
+      </c>
+      <c r="Q198">
+        <f t="shared" ca="1" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="R198">
+        <f t="shared" ca="1" si="67"/>
+        <v>14</v>
+      </c>
+      <c r="S198">
+        <f t="shared" ca="1" si="67"/>
+        <v>40</v>
+      </c>
+      <c r="T198">
+        <v>50</v>
+      </c>
+      <c r="U198">
+        <v>40</v>
+      </c>
+      <c r="V198">
+        <v>60</v>
+      </c>
+      <c r="W198">
+        <v>60</v>
+      </c>
+      <c r="X198">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>268</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199">
+        <v>23</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>47</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>4</v>
+      </c>
+      <c r="J199">
+        <f t="shared" ca="1" si="69"/>
+        <v>88</v>
+      </c>
+      <c r="K199">
+        <f t="shared" ca="1" si="69"/>
+        <v>86</v>
+      </c>
+      <c r="L199">
+        <f t="shared" ca="1" si="70"/>
+        <v>31</v>
+      </c>
+      <c r="M199">
+        <f t="shared" ca="1" si="71"/>
+        <v>65</v>
+      </c>
+      <c r="N199">
+        <f t="shared" ca="1" si="68"/>
+        <v>97</v>
+      </c>
+      <c r="O199">
+        <f t="shared" ca="1" si="72"/>
+        <v>83</v>
+      </c>
+      <c r="P199">
+        <f t="shared" ca="1" si="73"/>
+        <v>94</v>
+      </c>
+      <c r="Q199">
+        <f t="shared" ca="1" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="R199">
+        <f t="shared" ca="1" si="67"/>
+        <v>6</v>
+      </c>
+      <c r="S199">
+        <f t="shared" ca="1" si="67"/>
+        <v>19</v>
+      </c>
+      <c r="T199">
+        <v>50</v>
+      </c>
+      <c r="U199">
+        <v>40</v>
+      </c>
+      <c r="V199">
+        <v>60</v>
+      </c>
+      <c r="W199">
+        <v>60</v>
+      </c>
+      <c r="X199">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>267</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200">
+        <v>21</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200" t="s">
+        <v>47</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>4</v>
+      </c>
+      <c r="J200">
+        <f t="shared" ca="1" si="69"/>
+        <v>94</v>
+      </c>
+      <c r="K200">
+        <f t="shared" ca="1" si="69"/>
+        <v>78</v>
+      </c>
+      <c r="L200">
+        <f t="shared" ca="1" si="70"/>
+        <v>92</v>
+      </c>
+      <c r="M200">
+        <f t="shared" ca="1" si="71"/>
+        <v>97</v>
+      </c>
+      <c r="N200">
+        <f t="shared" ca="1" si="68"/>
+        <v>96</v>
+      </c>
+      <c r="O200">
+        <f t="shared" ca="1" si="72"/>
+        <v>53</v>
+      </c>
+      <c r="P200">
+        <f t="shared" ca="1" si="73"/>
+        <v>99</v>
+      </c>
+      <c r="Q200">
+        <f t="shared" ca="1" si="73"/>
+        <v>39</v>
+      </c>
+      <c r="R200">
+        <f t="shared" ca="1" si="67"/>
+        <v>98</v>
+      </c>
+      <c r="S200">
+        <f t="shared" ca="1" si="67"/>
+        <v>56</v>
+      </c>
+      <c r="T200">
+        <v>50</v>
+      </c>
+      <c r="U200">
+        <v>40</v>
+      </c>
+      <c r="V200">
+        <v>60</v>
+      </c>
+      <c r="W200">
+        <v>60</v>
+      </c>
+      <c r="X200">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>266</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201">
+        <v>26</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201" t="s">
+        <v>49</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>4</v>
+      </c>
+      <c r="J201">
+        <f t="shared" ca="1" si="69"/>
+        <v>77</v>
+      </c>
+      <c r="K201">
+        <f t="shared" ca="1" si="69"/>
+        <v>90</v>
+      </c>
+      <c r="L201">
+        <f t="shared" ca="1" si="70"/>
+        <v>30</v>
+      </c>
+      <c r="M201">
+        <f t="shared" ca="1" si="71"/>
+        <v>68</v>
+      </c>
+      <c r="N201">
+        <f t="shared" ca="1" si="68"/>
+        <v>100</v>
+      </c>
+      <c r="O201">
+        <f t="shared" ca="1" si="72"/>
+        <v>91</v>
+      </c>
+      <c r="P201">
+        <f t="shared" ca="1" si="73"/>
+        <v>46</v>
+      </c>
+      <c r="Q201">
+        <f t="shared" ca="1" si="73"/>
+        <v>50</v>
+      </c>
+      <c r="R201">
+        <f t="shared" ca="1" si="67"/>
+        <v>73</v>
+      </c>
+      <c r="S201">
+        <f t="shared" ca="1" si="67"/>
+        <v>14</v>
+      </c>
+      <c r="T201">
+        <v>50</v>
+      </c>
+      <c r="U201">
+        <v>40</v>
+      </c>
+      <c r="V201">
+        <v>60</v>
+      </c>
+      <c r="W201">
+        <v>60</v>
+      </c>
+      <c r="X201">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>269</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202">
+        <v>22</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202" t="s">
+        <v>55</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>4</v>
+      </c>
+      <c r="J202">
+        <f t="shared" ca="1" si="69"/>
+        <v>78</v>
+      </c>
+      <c r="K202">
+        <f t="shared" ca="1" si="69"/>
+        <v>78</v>
+      </c>
+      <c r="L202">
+        <f t="shared" ca="1" si="70"/>
+        <v>63</v>
+      </c>
+      <c r="M202">
+        <f t="shared" ca="1" si="71"/>
+        <v>63</v>
+      </c>
+      <c r="N202">
+        <f t="shared" ca="1" si="68"/>
+        <v>88</v>
+      </c>
+      <c r="O202">
+        <f t="shared" ca="1" si="72"/>
+        <v>57</v>
+      </c>
+      <c r="P202">
+        <f t="shared" ca="1" si="73"/>
+        <v>18</v>
+      </c>
+      <c r="Q202">
+        <f t="shared" ca="1" si="73"/>
+        <v>91</v>
+      </c>
+      <c r="R202">
+        <f t="shared" ca="1" si="67"/>
+        <v>97</v>
+      </c>
+      <c r="S202">
+        <f t="shared" ca="1" si="67"/>
+        <v>76</v>
+      </c>
+      <c r="T202">
+        <v>50</v>
+      </c>
+      <c r="U202">
+        <v>40</v>
+      </c>
+      <c r="V202">
+        <v>60</v>
+      </c>
+      <c r="W202">
+        <v>60</v>
+      </c>
+      <c r="X202">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>270</v>
+      </c>
+      <c r="D203" t="s">
+        <v>271</v>
+      </c>
+      <c r="E203">
+        <v>19</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203" t="s">
+        <v>55</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>4</v>
+      </c>
+      <c r="J203">
+        <f t="shared" ca="1" si="69"/>
+        <v>87</v>
+      </c>
+      <c r="K203">
+        <f t="shared" ca="1" si="69"/>
+        <v>85</v>
+      </c>
+      <c r="L203">
+        <f t="shared" ca="1" si="70"/>
+        <v>54</v>
+      </c>
+      <c r="M203">
+        <f t="shared" ca="1" si="71"/>
+        <v>96</v>
+      </c>
+      <c r="N203">
+        <f t="shared" ca="1" si="68"/>
+        <v>85</v>
+      </c>
+      <c r="O203">
+        <f t="shared" ca="1" si="72"/>
+        <v>58</v>
+      </c>
+      <c r="P203">
+        <f t="shared" ca="1" si="73"/>
+        <v>47</v>
+      </c>
+      <c r="Q203">
+        <f t="shared" ca="1" si="73"/>
+        <v>14</v>
+      </c>
+      <c r="R203">
+        <f t="shared" ca="1" si="67"/>
+        <v>46</v>
+      </c>
+      <c r="S203">
+        <f t="shared" ca="1" si="67"/>
+        <v>72</v>
+      </c>
+      <c r="T203">
+        <v>50</v>
+      </c>
+      <c r="U203">
+        <v>40</v>
+      </c>
+      <c r="V203">
+        <v>60</v>
+      </c>
+      <c r="W203">
+        <v>60</v>
+      </c>
+      <c r="X203">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>8</v>
+      </c>
+      <c r="C204" t="s">
+        <v>272</v>
+      </c>
+      <c r="D204" t="s">
+        <v>78</v>
+      </c>
+      <c r="E204">
+        <v>28</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204" t="s">
+        <v>59</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>4</v>
+      </c>
+      <c r="J204">
+        <f t="shared" ca="1" si="69"/>
+        <v>70</v>
+      </c>
+      <c r="K204">
+        <f t="shared" ca="1" si="69"/>
+        <v>81</v>
+      </c>
+      <c r="L204">
+        <f t="shared" ca="1" si="70"/>
+        <v>91</v>
+      </c>
+      <c r="M204">
+        <f t="shared" ca="1" si="71"/>
+        <v>70</v>
+      </c>
+      <c r="N204">
+        <f t="shared" ca="1" si="68"/>
+        <v>63</v>
+      </c>
+      <c r="O204">
+        <f t="shared" ca="1" si="72"/>
+        <v>64</v>
+      </c>
+      <c r="P204">
+        <f t="shared" ca="1" si="73"/>
+        <v>83</v>
+      </c>
+      <c r="Q204">
+        <f t="shared" ca="1" si="73"/>
+        <v>13</v>
+      </c>
+      <c r="R204">
+        <f t="shared" ca="1" si="67"/>
+        <v>31</v>
+      </c>
+      <c r="S204">
+        <f t="shared" ca="1" si="67"/>
+        <v>5</v>
+      </c>
+      <c r="T204">
+        <v>50</v>
+      </c>
+      <c r="U204">
+        <v>40</v>
+      </c>
+      <c r="V204">
+        <v>60</v>
+      </c>
+      <c r="W204">
+        <v>60</v>
+      </c>
+      <c r="X204">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>273</v>
+      </c>
+      <c r="D205" t="s">
+        <v>74</v>
+      </c>
+      <c r="E205">
+        <v>17</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205" t="s">
+        <v>59</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>4</v>
+      </c>
+      <c r="J205">
+        <f t="shared" ca="1" si="69"/>
+        <v>82</v>
+      </c>
+      <c r="K205">
+        <f t="shared" ca="1" si="69"/>
+        <v>85</v>
+      </c>
+      <c r="L205">
+        <f t="shared" ca="1" si="70"/>
+        <v>81</v>
+      </c>
+      <c r="M205">
+        <f t="shared" ca="1" si="71"/>
+        <v>78</v>
+      </c>
+      <c r="N205">
+        <f t="shared" ca="1" si="68"/>
+        <v>80</v>
+      </c>
+      <c r="O205">
+        <f t="shared" ca="1" si="72"/>
+        <v>89</v>
+      </c>
+      <c r="P205">
+        <f t="shared" ca="1" si="73"/>
+        <v>77</v>
+      </c>
+      <c r="Q205">
+        <f t="shared" ca="1" si="73"/>
+        <v>67</v>
+      </c>
+      <c r="R205">
+        <f t="shared" ca="1" si="73"/>
+        <v>72</v>
+      </c>
+      <c r="S205">
+        <f t="shared" ca="1" si="73"/>
+        <v>93</v>
+      </c>
+      <c r="T205">
+        <v>50</v>
+      </c>
+      <c r="U205">
+        <v>40</v>
+      </c>
+      <c r="V205">
+        <v>60</v>
+      </c>
+      <c r="W205">
+        <v>60</v>
+      </c>
+      <c r="X205">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>274</v>
+      </c>
+      <c r="D206" t="s">
+        <v>51</v>
+      </c>
+      <c r="E206">
+        <v>30</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206" t="s">
+        <v>64</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>4</v>
+      </c>
+      <c r="J206">
+        <v>90</v>
+      </c>
+      <c r="K206">
+        <v>70</v>
+      </c>
+      <c r="L206">
+        <f t="shared" ca="1" si="70"/>
+        <v>98</v>
+      </c>
+      <c r="M206">
+        <v>95</v>
+      </c>
+      <c r="N206">
+        <v>75</v>
+      </c>
+      <c r="O206">
+        <v>75</v>
+      </c>
+      <c r="P206">
+        <f t="shared" ca="1" si="73"/>
+        <v>28</v>
+      </c>
+      <c r="Q206">
+        <f t="shared" ca="1" si="73"/>
+        <v>18</v>
+      </c>
+      <c r="R206">
+        <f t="shared" ca="1" si="73"/>
+        <v>70</v>
+      </c>
+      <c r="S206">
+        <f t="shared" ca="1" si="73"/>
+        <v>63</v>
+      </c>
+      <c r="T206">
+        <v>50</v>
+      </c>
+      <c r="U206">
+        <v>40</v>
+      </c>
+      <c r="V206">
+        <v>60</v>
+      </c>
+      <c r="W206">
+        <v>60</v>
+      </c>
+      <c r="X206">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>275</v>
+      </c>
+      <c r="D207" t="s">
+        <v>276</v>
+      </c>
+      <c r="E207">
+        <v>24</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207" t="s">
+        <v>64</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>4</v>
+      </c>
+      <c r="J207">
+        <v>80</v>
+      </c>
+      <c r="K207">
+        <f t="shared" ca="1" si="69"/>
+        <v>82</v>
+      </c>
+      <c r="L207">
+        <f t="shared" ca="1" si="70"/>
+        <v>84</v>
+      </c>
+      <c r="M207">
+        <v>90</v>
+      </c>
+      <c r="N207">
+        <v>80</v>
+      </c>
+      <c r="O207">
+        <v>80</v>
+      </c>
+      <c r="P207">
+        <f t="shared" ca="1" si="73"/>
+        <v>73</v>
+      </c>
+      <c r="Q207">
+        <f t="shared" ca="1" si="73"/>
+        <v>27</v>
+      </c>
+      <c r="R207">
+        <f t="shared" ca="1" si="73"/>
+        <v>34</v>
+      </c>
+      <c r="S207">
+        <f t="shared" ca="1" si="73"/>
+        <v>41</v>
+      </c>
+      <c r="T207">
+        <v>50</v>
+      </c>
+      <c r="U207">
+        <v>40</v>
+      </c>
+      <c r="V207">
+        <v>60</v>
+      </c>
+      <c r="W207">
+        <v>60</v>
+      </c>
+      <c r="X207">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>277</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208">
+        <v>21</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208" t="s">
+        <v>64</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>4</v>
+      </c>
+      <c r="J208">
+        <f t="shared" ca="1" si="69"/>
+        <v>92</v>
+      </c>
+      <c r="K208">
+        <f t="shared" ca="1" si="69"/>
+        <v>93</v>
+      </c>
+      <c r="L208">
+        <f t="shared" ca="1" si="70"/>
+        <v>97</v>
+      </c>
+      <c r="M208">
+        <f t="shared" ca="1" si="71"/>
+        <v>99</v>
+      </c>
+      <c r="N208">
+        <f t="shared" ca="1" si="68"/>
+        <v>64</v>
+      </c>
+      <c r="O208">
+        <f t="shared" ca="1" si="72"/>
+        <v>58</v>
+      </c>
+      <c r="P208">
+        <f t="shared" ca="1" si="73"/>
+        <v>83</v>
+      </c>
+      <c r="Q208">
+        <f t="shared" ca="1" si="73"/>
+        <v>95</v>
+      </c>
+      <c r="R208">
+        <f t="shared" ca="1" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <f t="shared" ca="1" si="73"/>
+        <v>54</v>
+      </c>
+      <c r="T208">
+        <v>50</v>
+      </c>
+      <c r="U208">
+        <v>40</v>
+      </c>
+      <c r="V208">
+        <v>60</v>
+      </c>
+      <c r="W208">
+        <v>60</v>
+      </c>
+      <c r="X208">
         <v>60</v>
       </c>
     </row>
